--- a/artfynd/A 38730-2023.xlsx
+++ b/artfynd/A 38730-2023.xlsx
@@ -1434,10 +1434,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112370994</v>
+        <v>112371087</v>
       </c>
       <c r="B9" t="n">
-        <v>94287</v>
+        <v>90802</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1450,21 +1450,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>53</v>
+        <v>788</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Gul taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hydnellum geogenium</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Fr.) Banker</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1474,10 +1474,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>578362</v>
+        <v>578378</v>
       </c>
       <c r="R9" t="n">
-        <v>6712340</v>
+        <v>6712261</v>
       </c>
       <c r="S9" t="n">
         <v>15</v>
@@ -1536,10 +1536,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112371009</v>
+        <v>112370994</v>
       </c>
       <c r="B10" t="n">
-        <v>56575</v>
+        <v>94287</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1552,42 +1552,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>103021</v>
+        <v>53</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>578387</v>
+        <v>578362</v>
       </c>
       <c r="R10" t="n">
-        <v>6712235</v>
+        <v>6712340</v>
       </c>
       <c r="S10" t="n">
         <v>15</v>
@@ -1646,10 +1638,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112371087</v>
+        <v>112371009</v>
       </c>
       <c r="B11" t="n">
-        <v>90802</v>
+        <v>56575</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1662,34 +1654,42 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>788</v>
+        <v>103021</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Gul taggsvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum geogenium</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Banker</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>578378</v>
+        <v>578387</v>
       </c>
       <c r="R11" t="n">
-        <v>6712261</v>
+        <v>6712235</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -6428,7 +6428,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112371059</v>
+        <v>112366801</v>
       </c>
       <c r="B56" t="n">
         <v>96720</v>
@@ -6462,19 +6462,20 @@
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>578728</v>
+        <v>578471</v>
       </c>
       <c r="R56" t="n">
-        <v>6712078</v>
+        <v>6712021</v>
       </c>
       <c r="S56" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -6501,9 +6502,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>12:13</t>
+        </is>
+      </c>
       <c r="AA56" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6518,22 +6529,22 @@
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112371065</v>
+        <v>112370995</v>
       </c>
       <c r="B57" t="n">
-        <v>96720</v>
+        <v>94287</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6542,25 +6553,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6570,10 +6581,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>578756</v>
+        <v>578551</v>
       </c>
       <c r="R57" t="n">
-        <v>6711975</v>
+        <v>6712153</v>
       </c>
       <c r="S57" t="n">
         <v>15</v>
@@ -6632,7 +6643,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112366801</v>
+        <v>112371059</v>
       </c>
       <c r="B58" t="n">
         <v>96720</v>
@@ -6666,20 +6677,19 @@
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>578471</v>
+        <v>578728</v>
       </c>
       <c r="R58" t="n">
-        <v>6712021</v>
+        <v>6712078</v>
       </c>
       <c r="S58" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -6706,19 +6716,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z58" t="inlineStr">
-        <is>
-          <t>12:13</t>
-        </is>
-      </c>
       <c r="AA58" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB58" t="inlineStr">
-        <is>
-          <t>12:13</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6733,22 +6733,22 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112370995</v>
+        <v>112371065</v>
       </c>
       <c r="B59" t="n">
-        <v>94287</v>
+        <v>96720</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -6757,25 +6757,25 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>53</v>
+        <v>220787</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -6785,10 +6785,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>578551</v>
+        <v>578756</v>
       </c>
       <c r="R59" t="n">
-        <v>6712153</v>
+        <v>6711975</v>
       </c>
       <c r="S59" t="n">
         <v>15</v>
@@ -6847,7 +6847,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112366785</v>
+        <v>112371115</v>
       </c>
       <c r="B60" t="n">
         <v>98961</v>
@@ -6880,30 +6880,20 @@
           <t>Schreb.</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>578467</v>
+        <v>578380</v>
       </c>
       <c r="R60" t="n">
-        <v>6711997</v>
+        <v>6712058</v>
       </c>
       <c r="S60" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -6930,19 +6920,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z60" t="inlineStr">
-        <is>
-          <t>12:10</t>
-        </is>
-      </c>
       <c r="AA60" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB60" t="inlineStr">
-        <is>
-          <t>12:10</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -6957,22 +6937,22 @@
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>FREDRIK Månsson</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>FREDRIK Månsson</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>112371074</v>
+        <v>112366785</v>
       </c>
       <c r="B61" t="n">
-        <v>96720</v>
+        <v>98961</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -6981,41 +6961,51 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>578810</v>
+        <v>578467</v>
       </c>
       <c r="R61" t="n">
-        <v>6711915</v>
+        <v>6711997</v>
       </c>
       <c r="S61" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -7042,9 +7032,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>12:10</t>
+        </is>
+      </c>
       <c r="AA61" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7059,19 +7059,19 @@
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>FREDRIK Månsson</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>FREDRIK Månsson</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>112371061</v>
+        <v>112371074</v>
       </c>
       <c r="B62" t="n">
         <v>96720</v>
@@ -7111,10 +7111,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>578724</v>
+        <v>578810</v>
       </c>
       <c r="R62" t="n">
-        <v>6712065</v>
+        <v>6711915</v>
       </c>
       <c r="S62" t="n">
         <v>15</v>
@@ -7173,10 +7173,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>112371115</v>
+        <v>112371061</v>
       </c>
       <c r="B63" t="n">
-        <v>98961</v>
+        <v>96720</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7185,25 +7185,25 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7213,10 +7213,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>578380</v>
+        <v>578724</v>
       </c>
       <c r="R63" t="n">
-        <v>6712058</v>
+        <v>6712065</v>
       </c>
       <c r="S63" t="n">
         <v>15</v>

--- a/artfynd/A 38730-2023.xlsx
+++ b/artfynd/A 38730-2023.xlsx
@@ -683,7 +683,7 @@
         <v>112369189</v>
       </c>
       <c r="B2" t="n">
-        <v>73758</v>
+        <v>73772</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -802,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112371043</v>
+        <v>112371104</v>
       </c>
       <c r="B3" t="n">
-        <v>96720</v>
+        <v>90814</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -814,25 +814,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>4364</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>578361</v>
+        <v>578360</v>
       </c>
       <c r="R3" t="n">
-        <v>6712335</v>
+        <v>6712274</v>
       </c>
       <c r="S3" t="n">
         <v>15</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112371041</v>
+        <v>112375654</v>
       </c>
       <c r="B4" t="n">
-        <v>96720</v>
+        <v>90799</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,41 +916,44 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>1968</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Körbergs klack Ö, Gstr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>578365</v>
+        <v>578379</v>
       </c>
       <c r="R4" t="n">
-        <v>6712384</v>
+        <v>6712231</v>
       </c>
       <c r="S4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -977,39 +980,50 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Bo karlstens, fanny westling, Philipp Weiss, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112367877</v>
+        <v>112371044</v>
       </c>
       <c r="B5" t="n">
-        <v>90844</v>
+        <v>96735</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1018,48 +1032,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5449</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>578372</v>
+        <v>578369</v>
       </c>
       <c r="R5" t="n">
-        <v>6712298</v>
+        <v>6712329</v>
       </c>
       <c r="S5" t="n">
         <v>15</v>
@@ -1089,19 +1093,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>13:19</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>13:19</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1116,12 +1110,12 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Bo karlstens, fanny westling, Philipp Weiss, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
@@ -1131,7 +1125,7 @@
         <v>112371039</v>
       </c>
       <c r="B6" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1233,7 +1227,7 @@
         <v>112371045</v>
       </c>
       <c r="B7" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1332,10 +1326,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112371104</v>
+        <v>112371093</v>
       </c>
       <c r="B8" t="n">
-        <v>90800</v>
+        <v>90835</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1348,21 +1342,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4364</v>
+        <v>5964</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1372,10 +1366,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>578360</v>
+        <v>578358</v>
       </c>
       <c r="R8" t="n">
-        <v>6712274</v>
+        <v>6712387</v>
       </c>
       <c r="S8" t="n">
         <v>15</v>
@@ -1434,10 +1428,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112371087</v>
+        <v>112367877</v>
       </c>
       <c r="B9" t="n">
-        <v>90802</v>
+        <v>90858</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1450,34 +1444,44 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>788</v>
+        <v>5449</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gul taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum geogenium</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Banker</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>(Fr.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>578378</v>
+        <v>578372</v>
       </c>
       <c r="R9" t="n">
-        <v>6712261</v>
+        <v>6712298</v>
       </c>
       <c r="S9" t="n">
         <v>15</v>
@@ -1507,9 +1511,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>13:19</t>
+        </is>
+      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>13:19</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1524,22 +1538,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Bo karlstens, fanny westling, Philipp Weiss, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112370994</v>
+        <v>112371103</v>
       </c>
       <c r="B10" t="n">
-        <v>94287</v>
+        <v>77321</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1552,21 +1566,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>53</v>
+        <v>353</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1576,10 +1590,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>578362</v>
+        <v>578289</v>
       </c>
       <c r="R10" t="n">
-        <v>6712340</v>
+        <v>6712298</v>
       </c>
       <c r="S10" t="n">
         <v>15</v>
@@ -1638,10 +1652,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112371009</v>
+        <v>112371043</v>
       </c>
       <c r="B11" t="n">
-        <v>56575</v>
+        <v>96735</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1650,46 +1664,38 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>578387</v>
+        <v>578361</v>
       </c>
       <c r="R11" t="n">
-        <v>6712235</v>
+        <v>6712335</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1748,10 +1754,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112371091</v>
+        <v>112371030</v>
       </c>
       <c r="B12" t="n">
-        <v>90785</v>
+        <v>90806</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1764,21 +1770,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1968</v>
+        <v>4361</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1788,10 +1794,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>578379</v>
+        <v>578383</v>
       </c>
       <c r="R12" t="n">
-        <v>6712225</v>
+        <v>6712258</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1832,7 +1838,6 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -1851,10 +1856,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112371021</v>
+        <v>112370994</v>
       </c>
       <c r="B13" t="n">
-        <v>90812</v>
+        <v>94301</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1863,25 +1868,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4366</v>
+        <v>53</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1891,10 +1896,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>578391</v>
+        <v>578362</v>
       </c>
       <c r="R13" t="n">
-        <v>6712213</v>
+        <v>6712340</v>
       </c>
       <c r="S13" t="n">
         <v>15</v>
@@ -1953,10 +1958,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112371093</v>
+        <v>112371021</v>
       </c>
       <c r="B14" t="n">
-        <v>90821</v>
+        <v>90826</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1969,21 +1974,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5964</v>
+        <v>4366</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1993,10 +1998,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>578358</v>
+        <v>578391</v>
       </c>
       <c r="R14" t="n">
-        <v>6712387</v>
+        <v>6712213</v>
       </c>
       <c r="S14" t="n">
         <v>15</v>
@@ -2058,7 +2063,7 @@
         <v>112371092</v>
       </c>
       <c r="B15" t="n">
-        <v>90785</v>
+        <v>90799</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2158,10 +2163,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112371030</v>
+        <v>112371022</v>
       </c>
       <c r="B16" t="n">
-        <v>90792</v>
+        <v>90826</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2170,25 +2175,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2198,10 +2203,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>578383</v>
+        <v>578468</v>
       </c>
       <c r="R16" t="n">
-        <v>6712258</v>
+        <v>6712301</v>
       </c>
       <c r="S16" t="n">
         <v>15</v>
@@ -2263,7 +2268,7 @@
         <v>112371042</v>
       </c>
       <c r="B17" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2362,10 +2367,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112371020</v>
+        <v>112371118</v>
       </c>
       <c r="B18" t="n">
-        <v>90812</v>
+        <v>98980</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2378,21 +2383,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4366</v>
+        <v>222498</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2402,10 +2407,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>578387</v>
+        <v>578398</v>
       </c>
       <c r="R18" t="n">
-        <v>6712219</v>
+        <v>6712341</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2464,10 +2469,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112375654</v>
+        <v>112371091</v>
       </c>
       <c r="B19" t="n">
-        <v>90785</v>
+        <v>90799</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2498,22 +2503,19 @@
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Körbergs klack Ö, Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q19" t="n">
         <v>578379</v>
       </c>
       <c r="R19" t="n">
-        <v>6712231</v>
+        <v>6712225</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2540,19 +2542,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>12:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2568,22 +2560,22 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Bo karlstens, fanny westling, Philipp Weiss, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112371044</v>
+        <v>112371087</v>
       </c>
       <c r="B20" t="n">
-        <v>96720</v>
+        <v>90816</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2592,25 +2584,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>220787</v>
+        <v>788</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gul taggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum geogenium</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Banker</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2620,10 +2612,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>578369</v>
+        <v>578378</v>
       </c>
       <c r="R20" t="n">
-        <v>6712329</v>
+        <v>6712261</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2682,10 +2674,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112371022</v>
+        <v>112371105</v>
       </c>
       <c r="B21" t="n">
-        <v>90812</v>
+        <v>90814</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2698,21 +2690,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2722,10 +2714,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>578468</v>
+        <v>578469</v>
       </c>
       <c r="R21" t="n">
-        <v>6712301</v>
+        <v>6712284</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -2784,10 +2776,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112367870</v>
+        <v>112371009</v>
       </c>
       <c r="B22" t="n">
-        <v>96720</v>
+        <v>56575</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2796,51 +2788,49 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>578369</v>
+        <v>578387</v>
       </c>
       <c r="R22" t="n">
-        <v>6712296</v>
+        <v>6712235</v>
       </c>
       <c r="S22" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2867,19 +2857,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>13:18</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>13:18</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2894,22 +2874,22 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>FREDRIK Månsson</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>FREDRIK Månsson</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112371118</v>
+        <v>112371117</v>
       </c>
       <c r="B23" t="n">
-        <v>98961</v>
+        <v>98980</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2946,10 +2926,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>578398</v>
+        <v>578391</v>
       </c>
       <c r="R23" t="n">
-        <v>6712341</v>
+        <v>6712337</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -3008,10 +2988,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112371033</v>
+        <v>112371041</v>
       </c>
       <c r="B24" t="n">
-        <v>90823</v>
+        <v>96735</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3020,25 +3000,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5966</v>
+        <v>220787</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3048,10 +3028,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>578380</v>
+        <v>578365</v>
       </c>
       <c r="R24" t="n">
-        <v>6712323</v>
+        <v>6712384</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3110,10 +3090,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112371117</v>
+        <v>112371033</v>
       </c>
       <c r="B25" t="n">
-        <v>98961</v>
+        <v>90837</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3122,25 +3102,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>222498</v>
+        <v>5966</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3150,10 +3130,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>578391</v>
+        <v>578380</v>
       </c>
       <c r="R25" t="n">
-        <v>6712337</v>
+        <v>6712323</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3212,10 +3192,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112371105</v>
+        <v>112367870</v>
       </c>
       <c r="B26" t="n">
-        <v>90800</v>
+        <v>96735</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3224,41 +3204,51 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4364</v>
+        <v>220787</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>578469</v>
+        <v>578369</v>
       </c>
       <c r="R26" t="n">
-        <v>6712284</v>
+        <v>6712296</v>
       </c>
       <c r="S26" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3285,9 +3275,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>13:18</t>
+        </is>
+      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>13:18</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3302,22 +3302,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>FREDRIK Månsson</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>FREDRIK Månsson</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112371103</v>
+        <v>112371020</v>
       </c>
       <c r="B27" t="n">
-        <v>77307</v>
+        <v>90826</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3326,25 +3326,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>353</v>
+        <v>4366</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3354,10 +3354,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>578289</v>
+        <v>578387</v>
       </c>
       <c r="R27" t="n">
-        <v>6712298</v>
+        <v>6712219</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3416,10 +3416,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112388766</v>
+        <v>112388762</v>
       </c>
       <c r="B28" t="n">
-        <v>96720</v>
+        <v>90837</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3428,25 +3428,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>220787</v>
+        <v>5966</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3456,10 +3456,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>578376</v>
+        <v>578379</v>
       </c>
       <c r="R28" t="n">
-        <v>6712359</v>
+        <v>6712320</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3518,10 +3518,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112388765</v>
+        <v>112388764</v>
       </c>
       <c r="B29" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>578382</v>
       </c>
       <c r="R29" t="n">
-        <v>6712365</v>
+        <v>6712336</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3623,7 +3623,7 @@
         <v>112388760</v>
       </c>
       <c r="B30" t="n">
-        <v>90844</v>
+        <v>90858</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3722,10 +3722,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112388773</v>
+        <v>112388766</v>
       </c>
       <c r="B31" t="n">
-        <v>90800</v>
+        <v>96735</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3734,25 +3734,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4364</v>
+        <v>220787</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3762,10 +3762,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>578468</v>
+        <v>578376</v>
       </c>
       <c r="R31" t="n">
-        <v>6712289</v>
+        <v>6712359</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3824,10 +3824,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112388772</v>
+        <v>112388765</v>
       </c>
       <c r="B32" t="n">
-        <v>90800</v>
+        <v>96735</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3836,25 +3836,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4364</v>
+        <v>220787</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3864,10 +3864,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>578357</v>
+        <v>578382</v>
       </c>
       <c r="R32" t="n">
-        <v>6712262</v>
+        <v>6712365</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3926,10 +3926,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112388764</v>
+        <v>112388761</v>
       </c>
       <c r="B33" t="n">
-        <v>96720</v>
+        <v>90806</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -3938,25 +3938,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>220787</v>
+        <v>4361</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -3966,10 +3966,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>578382</v>
+        <v>578383</v>
       </c>
       <c r="R33" t="n">
-        <v>6712336</v>
+        <v>6712255</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4028,10 +4028,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112388762</v>
+        <v>112388773</v>
       </c>
       <c r="B34" t="n">
-        <v>90823</v>
+        <v>90814</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4040,25 +4040,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4068,10 +4068,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>578379</v>
+        <v>578468</v>
       </c>
       <c r="R34" t="n">
-        <v>6712320</v>
+        <v>6712289</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4133,7 +4133,7 @@
         <v>112388774</v>
       </c>
       <c r="B35" t="n">
-        <v>90794</v>
+        <v>90808</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4236,10 +4236,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112388761</v>
+        <v>112388772</v>
       </c>
       <c r="B36" t="n">
-        <v>90792</v>
+        <v>90814</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4248,25 +4248,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4361</v>
+        <v>4364</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4276,10 +4276,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>578383</v>
+        <v>578357</v>
       </c>
       <c r="R36" t="n">
-        <v>6712255</v>
+        <v>6712262</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4338,10 +4338,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112366860</v>
+        <v>112368041</v>
       </c>
       <c r="B37" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4373,28 +4373,32 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr"/>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr">
         <is>
           <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>578426</v>
+        <v>578593</v>
       </c>
       <c r="R37" t="n">
-        <v>6712038</v>
+        <v>6712103</v>
       </c>
       <c r="S37" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4423,7 +4427,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4433,7 +4437,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4448,22 +4452,22 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>FREDRIK Månsson</t>
+          <t>Maj-Lis Koivisto</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>FREDRIK Månsson</t>
+          <t>Maj-Lis Koivisto</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112368041</v>
+        <v>112366785</v>
       </c>
       <c r="B38" t="n">
-        <v>96720</v>
+        <v>98980</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4472,55 +4476,51 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>578593</v>
+        <v>578467</v>
       </c>
       <c r="R38" t="n">
-        <v>6712103</v>
+        <v>6711997</v>
       </c>
       <c r="S38" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4559,7 +4559,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4574,22 +4574,22 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Maj-Lis Koivisto</t>
+          <t>FREDRIK Månsson</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Maj-Lis Koivisto</t>
+          <t>FREDRIK Månsson</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112366931</v>
+        <v>112371017</v>
       </c>
       <c r="B39" t="n">
-        <v>96720</v>
+        <v>89499</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4598,42 +4598,44 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>220787</v>
+        <v>112</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>578469</v>
+        <v>578628</v>
       </c>
       <c r="R39" t="n">
-        <v>6712022</v>
+        <v>6712144</v>
       </c>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -4660,49 +4662,40 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>12:19</t>
-        </is>
-      </c>
       <c r="AA39" t="inlineStr">
         <is>
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>12:19</t>
-        </is>
-      </c>
       <c r="AD39" t="b">
         <v>0</v>
       </c>
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112366856</v>
+        <v>112371072</v>
       </c>
       <c r="B40" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4733,20 +4726,19 @@
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>578467</v>
+        <v>578789</v>
       </c>
       <c r="R40" t="n">
-        <v>6712023</v>
+        <v>6711935</v>
       </c>
       <c r="S40" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -4773,19 +4765,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>12:13</t>
-        </is>
-      </c>
       <c r="AA40" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>12:13</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4800,22 +4782,22 @@
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112367463</v>
+        <v>112367472</v>
       </c>
       <c r="B41" t="n">
-        <v>96720</v>
+        <v>98980</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -4824,25 +4806,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -4853,10 +4835,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>578432</v>
+        <v>578417</v>
       </c>
       <c r="R41" t="n">
-        <v>6712038</v>
+        <v>6712028</v>
       </c>
       <c r="S41" t="n">
         <v>1</v>
@@ -4888,7 +4870,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -4898,7 +4880,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -4925,10 +4907,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112371050</v>
+        <v>112371000</v>
       </c>
       <c r="B42" t="n">
-        <v>96720</v>
+        <v>78242</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -4937,25 +4919,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>220787</v>
+        <v>6453</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -4965,10 +4947,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>578629</v>
+        <v>578757</v>
       </c>
       <c r="R42" t="n">
-        <v>6712145</v>
+        <v>6711985</v>
       </c>
       <c r="S42" t="n">
         <v>15</v>
@@ -5027,10 +5009,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112371107</v>
+        <v>112370999</v>
       </c>
       <c r="B43" t="n">
-        <v>90800</v>
+        <v>89517</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5043,21 +5025,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4364</v>
+        <v>5447</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5067,10 +5049,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>578769</v>
+        <v>578842</v>
       </c>
       <c r="R43" t="n">
-        <v>6712012</v>
+        <v>6711820</v>
       </c>
       <c r="S43" t="n">
         <v>15</v>
@@ -5129,10 +5111,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>112371048</v>
+        <v>112367483</v>
       </c>
       <c r="B44" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5162,20 +5144,30 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>578589</v>
+        <v>578406</v>
       </c>
       <c r="R44" t="n">
-        <v>6712135</v>
+        <v>6712052</v>
       </c>
       <c r="S44" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5202,9 +5194,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>12:51</t>
+        </is>
+      </c>
       <c r="AA44" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>12:51</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5219,22 +5221,22 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>FREDRIK Månsson</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>FREDRIK Månsson</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>112371066</v>
+        <v>112371107</v>
       </c>
       <c r="B45" t="n">
-        <v>96720</v>
+        <v>90814</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5243,25 +5245,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>220787</v>
+        <v>4364</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5271,10 +5273,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>578758</v>
+        <v>578769</v>
       </c>
       <c r="R45" t="n">
-        <v>6711984</v>
+        <v>6712012</v>
       </c>
       <c r="S45" t="n">
         <v>15</v>
@@ -5333,10 +5335,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112371068</v>
+        <v>112367497</v>
       </c>
       <c r="B46" t="n">
-        <v>96720</v>
+        <v>98980</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5345,41 +5347,42 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>578760</v>
+        <v>578413</v>
       </c>
       <c r="R46" t="n">
-        <v>6711952</v>
+        <v>6712038</v>
       </c>
       <c r="S46" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5406,9 +5409,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>12:53</t>
+        </is>
+      </c>
       <c r="AA46" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>12:53</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5423,22 +5436,22 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112371069</v>
+        <v>112367463</v>
       </c>
       <c r="B47" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5469,19 +5482,20 @@
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>578778</v>
+        <v>578432</v>
       </c>
       <c r="R47" t="n">
-        <v>6711932</v>
+        <v>6712038</v>
       </c>
       <c r="S47" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -5508,9 +5522,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
       <c r="AA47" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5525,22 +5549,22 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112366780</v>
+        <v>112371053</v>
       </c>
       <c r="B48" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5570,30 +5594,20 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>578472</v>
+        <v>578641</v>
       </c>
       <c r="R48" t="n">
-        <v>6712040</v>
+        <v>6712145</v>
       </c>
       <c r="S48" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -5620,19 +5634,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>12:09</t>
-        </is>
-      </c>
       <c r="AA48" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB48" t="inlineStr">
-        <is>
-          <t>12:09</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5647,22 +5651,22 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Stephen Hinton</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Stephen Hinton</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112368608</v>
+        <v>112371090</v>
       </c>
       <c r="B49" t="n">
-        <v>96720</v>
+        <v>89769</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5671,55 +5675,41 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>220787</v>
+        <v>1101</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gropticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Postia guttulata</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>(Peck) Jülich</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>578601</v>
+        <v>578628</v>
       </c>
       <c r="R49" t="n">
-        <v>6712180</v>
+        <v>6712141</v>
       </c>
       <c r="S49" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -5746,19 +5736,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>13:54</t>
-        </is>
-      </c>
       <c r="AA49" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB49" t="inlineStr">
-        <is>
-          <t>13:54</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5773,22 +5753,22 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Maj-Lis Koivisto</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Maj-Lis Koivisto</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>112367497</v>
+        <v>112371011</v>
       </c>
       <c r="B50" t="n">
-        <v>98961</v>
+        <v>89072</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -5801,38 +5781,37 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>222498</v>
+        <v>256703</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>578413</v>
+        <v>578513</v>
       </c>
       <c r="R50" t="n">
-        <v>6712038</v>
+        <v>6712263</v>
       </c>
       <c r="S50" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -5859,19 +5838,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>12:53</t>
-        </is>
-      </c>
       <c r="AA50" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB50" t="inlineStr">
-        <is>
-          <t>12:53</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -5886,22 +5855,22 @@
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>112371116</v>
+        <v>112371048</v>
       </c>
       <c r="B51" t="n">
-        <v>98961</v>
+        <v>96735</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -5910,25 +5879,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -5938,10 +5907,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>578393</v>
+        <v>578589</v>
       </c>
       <c r="R51" t="n">
-        <v>6712084</v>
+        <v>6712135</v>
       </c>
       <c r="S51" t="n">
         <v>15</v>
@@ -6000,10 +5969,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112371387</v>
+        <v>112368348</v>
       </c>
       <c r="B52" t="n">
-        <v>73818</v>
+        <v>96735</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6016,40 +5985,51 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6486</v>
+        <v>220787</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Skuggnål</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Chaenotheca sphaerocephala</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Nádv.</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Körberget, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>578614</v>
+        <v>578592</v>
       </c>
       <c r="R52" t="n">
-        <v>6712109</v>
+        <v>6712168</v>
       </c>
       <c r="S52" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6073,12 +6053,22 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6087,34 +6077,28 @@
       <c r="AE52" t="b">
         <v>0</v>
       </c>
-      <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="b">
         <v>0</v>
-      </c>
-      <c r="AO52" t="inlineStr">
-        <is>
-          <t>Bark i rotskreva på grov gran</t>
-        </is>
       </c>
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Nicklas Gustavsson</t>
+          <t>Maj-Lis Koivisto</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Nicklas Gustavsson</t>
+          <t>Maj-Lis Koivisto</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112371113</v>
+        <v>112367457</v>
       </c>
       <c r="B53" t="n">
-        <v>98961</v>
+        <v>96735</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6123,41 +6107,42 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>578436</v>
+        <v>578454</v>
       </c>
       <c r="R53" t="n">
-        <v>6711999</v>
+        <v>6712038</v>
       </c>
       <c r="S53" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6184,9 +6169,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
       <c r="AA53" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6201,22 +6196,22 @@
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112367564</v>
+        <v>112367487</v>
       </c>
       <c r="B54" t="n">
-        <v>98961</v>
+        <v>96735</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6225,25 +6220,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6254,10 +6249,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>578371</v>
+        <v>578405</v>
       </c>
       <c r="R54" t="n">
-        <v>6712052</v>
+        <v>6712050</v>
       </c>
       <c r="S54" t="n">
         <v>1</v>
@@ -6289,7 +6284,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6299,7 +6294,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6326,10 +6321,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>112371000</v>
+        <v>112368304</v>
       </c>
       <c r="B55" t="n">
-        <v>78228</v>
+        <v>96735</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6338,41 +6333,42 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6453</v>
+        <v>220787</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>578757</v>
+        <v>578586</v>
       </c>
       <c r="R55" t="n">
-        <v>6711985</v>
+        <v>6712067</v>
       </c>
       <c r="S55" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -6396,12 +6392,12 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6416,22 +6412,22 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112366801</v>
+        <v>112371387</v>
       </c>
       <c r="B56" t="n">
-        <v>96720</v>
+        <v>73832</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6444,38 +6440,40 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>220787</v>
+        <v>6486</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skuggnål</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Chaenotheca sphaerocephala</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Nádv.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körberget, Gstr</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>578471</v>
+        <v>578614</v>
       </c>
       <c r="R56" t="n">
-        <v>6712021</v>
+        <v>6712109</v>
       </c>
       <c r="S56" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -6499,22 +6497,12 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="Z56" t="inlineStr">
-        <is>
-          <t>12:13</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB56" t="inlineStr">
-        <is>
-          <t>12:13</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6523,28 +6511,34 @@
       <c r="AE56" t="b">
         <v>0</v>
       </c>
+      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="b">
         <v>0</v>
+      </c>
+      <c r="AO56" t="inlineStr">
+        <is>
+          <t>Bark i rotskreva på grov gran</t>
+        </is>
       </c>
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112370995</v>
+        <v>112371189</v>
       </c>
       <c r="B57" t="n">
-        <v>94287</v>
+        <v>94301</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6575,19 +6569,23 @@
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Körberget, Gstr</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>578551</v>
+        <v>578633</v>
       </c>
       <c r="R57" t="n">
-        <v>6712153</v>
+        <v>6712149</v>
       </c>
       <c r="S57" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -6611,12 +6609,17 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>Mycket rikligt</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6625,28 +6628,34 @@
       <c r="AE57" t="b">
         <v>0</v>
       </c>
+      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
+      </c>
+      <c r="AO57" t="inlineStr">
+        <is>
+          <t>Ved, granlåga</t>
+        </is>
       </c>
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112371059</v>
+        <v>112367496</v>
       </c>
       <c r="B58" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6676,20 +6685,30 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>578728</v>
+        <v>578380</v>
       </c>
       <c r="R58" t="n">
-        <v>6712078</v>
+        <v>6712058</v>
       </c>
       <c r="S58" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -6716,9 +6735,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>12:53</t>
+        </is>
+      </c>
       <c r="AA58" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>12:53</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6733,22 +6762,22 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>FREDRIK Månsson</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>FREDRIK Månsson</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112371065</v>
+        <v>112371068</v>
       </c>
       <c r="B59" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -6785,10 +6814,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>578756</v>
+        <v>578760</v>
       </c>
       <c r="R59" t="n">
-        <v>6711975</v>
+        <v>6711952</v>
       </c>
       <c r="S59" t="n">
         <v>15</v>
@@ -6847,10 +6876,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112371115</v>
+        <v>112371064</v>
       </c>
       <c r="B60" t="n">
-        <v>98961</v>
+        <v>96735</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -6859,25 +6888,25 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -6887,10 +6916,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>578380</v>
+        <v>578762</v>
       </c>
       <c r="R60" t="n">
-        <v>6712058</v>
+        <v>6711980</v>
       </c>
       <c r="S60" t="n">
         <v>15</v>
@@ -6949,10 +6978,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>112366785</v>
+        <v>112371065</v>
       </c>
       <c r="B61" t="n">
-        <v>98961</v>
+        <v>96735</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -6961,51 +6990,41 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>578467</v>
+        <v>578756</v>
       </c>
       <c r="R61" t="n">
-        <v>6711997</v>
+        <v>6711975</v>
       </c>
       <c r="S61" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -7032,19 +7051,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z61" t="inlineStr">
-        <is>
-          <t>12:10</t>
-        </is>
-      </c>
       <c r="AA61" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB61" t="inlineStr">
-        <is>
-          <t>12:10</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7059,22 +7068,22 @@
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>FREDRIK Månsson</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>FREDRIK Månsson</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>112371074</v>
+        <v>112371061</v>
       </c>
       <c r="B62" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7111,10 +7120,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>578810</v>
+        <v>578724</v>
       </c>
       <c r="R62" t="n">
-        <v>6711915</v>
+        <v>6712065</v>
       </c>
       <c r="S62" t="n">
         <v>15</v>
@@ -7173,10 +7182,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>112371061</v>
+        <v>112366801</v>
       </c>
       <c r="B63" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7207,19 +7216,20 @@
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>578724</v>
+        <v>578471</v>
       </c>
       <c r="R63" t="n">
-        <v>6712065</v>
+        <v>6712021</v>
       </c>
       <c r="S63" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -7246,9 +7256,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>12:13</t>
+        </is>
+      </c>
       <c r="AA63" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7263,22 +7283,22 @@
       <c r="AT63" t="inlineStr"/>
       <c r="AW63" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX63" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>112371070</v>
+        <v>112371051</v>
       </c>
       <c r="B64" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7315,10 +7335,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>578783</v>
+        <v>578632</v>
       </c>
       <c r="R64" t="n">
-        <v>6711931</v>
+        <v>6712136</v>
       </c>
       <c r="S64" t="n">
         <v>15</v>
@@ -7377,10 +7397,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>112371011</v>
+        <v>112371119</v>
       </c>
       <c r="B65" t="n">
-        <v>89058</v>
+        <v>98980</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7393,21 +7413,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>256703</v>
+        <v>222498</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7417,10 +7437,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>578513</v>
+        <v>578635</v>
       </c>
       <c r="R65" t="n">
-        <v>6712263</v>
+        <v>6712118</v>
       </c>
       <c r="S65" t="n">
         <v>15</v>
@@ -7479,10 +7499,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>112368228</v>
+        <v>112371050</v>
       </c>
       <c r="B66" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7513,20 +7533,19 @@
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>578533</v>
+        <v>578629</v>
       </c>
       <c r="R66" t="n">
-        <v>6712099</v>
+        <v>6712145</v>
       </c>
       <c r="S66" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -7553,19 +7572,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z66" t="inlineStr">
-        <is>
-          <t>13:33</t>
-        </is>
-      </c>
       <c r="AA66" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB66" t="inlineStr">
-        <is>
-          <t>13:33</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -7580,22 +7589,22 @@
       <c r="AT66" t="inlineStr"/>
       <c r="AW66" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX66" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>112368643</v>
+        <v>112371049</v>
       </c>
       <c r="B67" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -7626,20 +7635,19 @@
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>578578</v>
+        <v>578588</v>
       </c>
       <c r="R67" t="n">
-        <v>6712190</v>
+        <v>6712130</v>
       </c>
       <c r="S67" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -7666,19 +7674,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z67" t="inlineStr">
-        <is>
-          <t>13:58</t>
-        </is>
-      </c>
       <c r="AA67" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB67" t="inlineStr">
-        <is>
-          <t>13:58</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -7693,22 +7691,22 @@
       <c r="AT67" t="inlineStr"/>
       <c r="AW67" t="inlineStr">
         <is>
-          <t>Stephen Hinton</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX67" t="inlineStr">
         <is>
-          <t>Stephen Hinton</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>112370881</v>
+        <v>112371073</v>
       </c>
       <c r="B68" t="n">
-        <v>73818</v>
+        <v>96735</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -7721,40 +7719,37 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6486</v>
+        <v>220787</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Skuggnål</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Chaenotheca sphaerocephala</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Nádv.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Körberget, Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>578822</v>
+        <v>578799</v>
       </c>
       <c r="R68" t="n">
-        <v>6711846</v>
+        <v>6711927</v>
       </c>
       <c r="S68" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
@@ -7778,17 +7773,12 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-09-28</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
-        </is>
-      </c>
-      <c r="AC68" t="inlineStr">
-        <is>
-          <t>Trebuxoida alger</t>
+          <t>2023-09-28</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -7797,43 +7787,28 @@
       <c r="AE68" t="b">
         <v>0</v>
       </c>
-      <c r="AF68" t="inlineStr">
-        <is>
-          <t>mikroskoperad</t>
-        </is>
-      </c>
       <c r="AG68" t="b">
         <v>0</v>
-      </c>
-      <c r="AO68" t="inlineStr">
-        <is>
-          <t>Bark och växtdelar i rotskreva på gran</t>
-        </is>
-      </c>
-      <c r="AQ68" t="inlineStr">
-        <is>
-          <t>Nicklas Gustavsson</t>
-        </is>
       </c>
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
         <is>
-          <t>Nicklas Gustavsson</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX68" t="inlineStr">
         <is>
-          <t>Nicklas Gustavsson</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>112367483</v>
+        <v>112370997</v>
       </c>
       <c r="B69" t="n">
-        <v>96720</v>
+        <v>94301</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -7842,51 +7817,41 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr"/>
+          <t>(Nees ex Lindenb.) Meyl.</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>578406</v>
+        <v>578626</v>
       </c>
       <c r="R69" t="n">
-        <v>6712052</v>
+        <v>6712142</v>
       </c>
       <c r="S69" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
@@ -7913,19 +7878,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z69" t="inlineStr">
-        <is>
-          <t>12:51</t>
-        </is>
-      </c>
       <c r="AA69" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB69" t="inlineStr">
-        <is>
-          <t>12:51</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -7940,22 +7895,22 @@
       <c r="AT69" t="inlineStr"/>
       <c r="AW69" t="inlineStr">
         <is>
-          <t>FREDRIK Månsson</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX69" t="inlineStr">
         <is>
-          <t>FREDRIK Månsson</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>112371073</v>
+        <v>112371038</v>
       </c>
       <c r="B70" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -7992,10 +7947,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>578799</v>
+        <v>578400</v>
       </c>
       <c r="R70" t="n">
-        <v>6711927</v>
+        <v>6712041</v>
       </c>
       <c r="S70" t="n">
         <v>15</v>
@@ -8054,10 +8009,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>112371072</v>
+        <v>112371067</v>
       </c>
       <c r="B71" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8094,10 +8049,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>578789</v>
+        <v>578762</v>
       </c>
       <c r="R71" t="n">
-        <v>6711935</v>
+        <v>6711974</v>
       </c>
       <c r="S71" t="n">
         <v>15</v>
@@ -8156,10 +8111,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>112371052</v>
+        <v>112371059</v>
       </c>
       <c r="B72" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8196,10 +8151,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>578644</v>
+        <v>578728</v>
       </c>
       <c r="R72" t="n">
-        <v>6712141</v>
+        <v>6712078</v>
       </c>
       <c r="S72" t="n">
         <v>15</v>
@@ -8258,10 +8213,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>112371037</v>
+        <v>112368548</v>
       </c>
       <c r="B73" t="n">
-        <v>96720</v>
+        <v>79580</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8270,41 +8225,42 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>220787</v>
+        <v>1049</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>578447</v>
+        <v>578578</v>
       </c>
       <c r="R73" t="n">
-        <v>6712038</v>
+        <v>6712190</v>
       </c>
       <c r="S73" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
@@ -8331,9 +8287,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z73" t="inlineStr">
+        <is>
+          <t>13:50</t>
+        </is>
+      </c>
       <c r="AA73" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8348,22 +8314,22 @@
       <c r="AT73" t="inlineStr"/>
       <c r="AW73" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Stephen Hinton</t>
         </is>
       </c>
       <c r="AX73" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Stephen Hinton</t>
         </is>
       </c>
       <c r="AY73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>112366922</v>
+        <v>112368643</v>
       </c>
       <c r="B74" t="n">
-        <v>98961</v>
+        <v>96735</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8372,25 +8338,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -8401,13 +8367,13 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>578469</v>
+        <v>578578</v>
       </c>
       <c r="R74" t="n">
-        <v>6712020</v>
+        <v>6712190</v>
       </c>
       <c r="S74" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
@@ -8436,7 +8402,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -8446,7 +8412,7 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8461,22 +8427,22 @@
       <c r="AT74" t="inlineStr"/>
       <c r="AW74" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Stephen Hinton</t>
         </is>
       </c>
       <c r="AX74" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Stephen Hinton</t>
         </is>
       </c>
       <c r="AY74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>112366919</v>
+        <v>112371060</v>
       </c>
       <c r="B75" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8507,20 +8473,19 @@
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>578474</v>
+        <v>578726</v>
       </c>
       <c r="R75" t="n">
-        <v>6712022</v>
+        <v>6712073</v>
       </c>
       <c r="S75" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
@@ -8547,19 +8512,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z75" t="inlineStr">
-        <is>
-          <t>12:18</t>
-        </is>
-      </c>
       <c r="AA75" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB75" t="inlineStr">
-        <is>
-          <t>12:18</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -8574,22 +8529,22 @@
       <c r="AT75" t="inlineStr"/>
       <c r="AW75" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX75" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>112371060</v>
+        <v>112371046</v>
       </c>
       <c r="B76" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -8626,10 +8581,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>578726</v>
+        <v>578555</v>
       </c>
       <c r="R76" t="n">
-        <v>6712073</v>
+        <v>6712144</v>
       </c>
       <c r="S76" t="n">
         <v>15</v>
@@ -8688,10 +8643,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>112371017</v>
+        <v>112371115</v>
       </c>
       <c r="B77" t="n">
-        <v>89485</v>
+        <v>98980</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -8700,41 +8655,38 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>112</v>
+        <v>222498</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
           <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>578628</v>
+        <v>578380</v>
       </c>
       <c r="R77" t="n">
-        <v>6712144</v>
+        <v>6712058</v>
       </c>
       <c r="S77" t="n">
         <v>15</v>
@@ -8775,7 +8727,6 @@
       <c r="AE77" t="b">
         <v>0</v>
       </c>
-      <c r="AF77" t="inlineStr"/>
       <c r="AG77" t="b">
         <v>0</v>
       </c>
@@ -8794,10 +8745,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>112371010</v>
+        <v>112371037</v>
       </c>
       <c r="B78" t="n">
-        <v>56575</v>
+        <v>96735</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -8806,46 +8757,38 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
           <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>578638</v>
+        <v>578447</v>
       </c>
       <c r="R78" t="n">
-        <v>6712116</v>
+        <v>6712038</v>
       </c>
       <c r="S78" t="n">
         <v>15</v>
@@ -8904,10 +8847,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>112367472</v>
+        <v>112367511</v>
       </c>
       <c r="B79" t="n">
-        <v>98961</v>
+        <v>96735</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -8916,28 +8859,37 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
@@ -8945,13 +8897,13 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>578417</v>
+        <v>578373</v>
       </c>
       <c r="R79" t="n">
-        <v>6712028</v>
+        <v>6712055</v>
       </c>
       <c r="S79" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
@@ -8980,7 +8932,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
@@ -8990,7 +8942,7 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9005,22 +8957,22 @@
       <c r="AT79" t="inlineStr"/>
       <c r="AW79" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>FREDRIK Månsson</t>
         </is>
       </c>
       <c r="AX79" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>FREDRIK Månsson</t>
         </is>
       </c>
       <c r="AY79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>112371051</v>
+        <v>112366860</v>
       </c>
       <c r="B80" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9050,20 +9002,30 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>578632</v>
+        <v>578426</v>
       </c>
       <c r="R80" t="n">
-        <v>6712136</v>
+        <v>6712038</v>
       </c>
       <c r="S80" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
@@ -9090,9 +9052,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z80" t="inlineStr">
+        <is>
+          <t>12:12</t>
+        </is>
+      </c>
       <c r="AA80" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9107,22 +9079,22 @@
       <c r="AT80" t="inlineStr"/>
       <c r="AW80" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>FREDRIK Månsson</t>
         </is>
       </c>
       <c r="AX80" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>FREDRIK Månsson</t>
         </is>
       </c>
       <c r="AY80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>112371189</v>
+        <v>112366922</v>
       </c>
       <c r="B81" t="n">
-        <v>94287</v>
+        <v>98980</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9131,45 +9103,42 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>53</v>
+        <v>222498</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Körberget, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>578633</v>
+        <v>578469</v>
       </c>
       <c r="R81" t="n">
-        <v>6712149</v>
+        <v>6712020</v>
       </c>
       <c r="S81" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
@@ -9193,17 +9162,22 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="Z81" t="inlineStr">
+        <is>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
-        </is>
-      </c>
-      <c r="AC81" t="inlineStr">
-        <is>
-          <t>Mycket rikligt</t>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB81" t="inlineStr">
+        <is>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9212,34 +9186,28 @@
       <c r="AE81" t="b">
         <v>0</v>
       </c>
-      <c r="AF81" t="inlineStr"/>
       <c r="AG81" t="b">
         <v>0</v>
-      </c>
-      <c r="AO81" t="inlineStr">
-        <is>
-          <t>Ved, granlåga</t>
-        </is>
       </c>
       <c r="AT81" t="inlineStr"/>
       <c r="AW81" t="inlineStr">
         <is>
-          <t>Nicklas Gustavsson</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX81" t="inlineStr">
         <is>
-          <t>Nicklas Gustavsson</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>112368304</v>
+        <v>112366912</v>
       </c>
       <c r="B82" t="n">
-        <v>96720</v>
+        <v>98980</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9248,25 +9216,25 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -9277,10 +9245,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>578586</v>
+        <v>578473</v>
       </c>
       <c r="R82" t="n">
-        <v>6712067</v>
+        <v>6712014</v>
       </c>
       <c r="S82" t="n">
         <v>1</v>
@@ -9307,12 +9275,22 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="Z82" t="inlineStr">
+        <is>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB82" t="inlineStr">
+        <is>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -9339,10 +9317,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>112368548</v>
+        <v>112371066</v>
       </c>
       <c r="B83" t="n">
-        <v>79566</v>
+        <v>96735</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9351,42 +9329,41 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>1049</v>
+        <v>220787</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>578578</v>
+        <v>578758</v>
       </c>
       <c r="R83" t="n">
-        <v>6712190</v>
+        <v>6711984</v>
       </c>
       <c r="S83" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T83" t="inlineStr">
         <is>
@@ -9413,19 +9390,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z83" t="inlineStr">
-        <is>
-          <t>13:50</t>
-        </is>
-      </c>
       <c r="AA83" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB83" t="inlineStr">
-        <is>
-          <t>13:50</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -9440,22 +9407,22 @@
       <c r="AT83" t="inlineStr"/>
       <c r="AW83" t="inlineStr">
         <is>
-          <t>Stephen Hinton</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX83" t="inlineStr">
         <is>
-          <t>Stephen Hinton</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>112367511</v>
+        <v>112368228</v>
       </c>
       <c r="B84" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -9485,16 +9452,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
@@ -9502,13 +9460,13 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>578373</v>
+        <v>578533</v>
       </c>
       <c r="R84" t="n">
-        <v>6712055</v>
+        <v>6712099</v>
       </c>
       <c r="S84" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="T84" t="inlineStr">
         <is>
@@ -9537,7 +9495,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
@@ -9547,7 +9505,7 @@
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -9562,22 +9520,22 @@
       <c r="AT84" t="inlineStr"/>
       <c r="AW84" t="inlineStr">
         <is>
-          <t>FREDRIK Månsson</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX84" t="inlineStr">
         <is>
-          <t>FREDRIK Månsson</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>112367487</v>
+        <v>112368608</v>
       </c>
       <c r="B85" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -9607,21 +9565,34 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P85" t="inlineStr">
         <is>
           <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>578405</v>
+        <v>578601</v>
       </c>
       <c r="R85" t="n">
-        <v>6712050</v>
+        <v>6712180</v>
       </c>
       <c r="S85" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T85" t="inlineStr">
         <is>
@@ -9650,7 +9621,7 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
@@ -9660,7 +9631,7 @@
       </c>
       <c r="AB85" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -9675,22 +9646,22 @@
       <c r="AT85" t="inlineStr"/>
       <c r="AW85" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Maj-Lis Koivisto</t>
         </is>
       </c>
       <c r="AX85" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Maj-Lis Koivisto</t>
         </is>
       </c>
       <c r="AY85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>112371046</v>
+        <v>112366931</v>
       </c>
       <c r="B86" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -9721,19 +9692,20 @@
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>578555</v>
+        <v>578469</v>
       </c>
       <c r="R86" t="n">
-        <v>6712144</v>
+        <v>6712022</v>
       </c>
       <c r="S86" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="T86" t="inlineStr">
         <is>
@@ -9760,9 +9732,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z86" t="inlineStr">
+        <is>
+          <t>12:19</t>
+        </is>
+      </c>
       <c r="AA86" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB86" t="inlineStr">
+        <is>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -9777,22 +9759,22 @@
       <c r="AT86" t="inlineStr"/>
       <c r="AW86" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX86" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>112371049</v>
+        <v>112366780</v>
       </c>
       <c r="B87" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -9822,20 +9804,30 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>578588</v>
+        <v>578472</v>
       </c>
       <c r="R87" t="n">
-        <v>6712130</v>
+        <v>6712040</v>
       </c>
       <c r="S87" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T87" t="inlineStr">
         <is>
@@ -9862,9 +9854,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z87" t="inlineStr">
+        <is>
+          <t>12:09</t>
+        </is>
+      </c>
       <c r="AA87" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB87" t="inlineStr">
+        <is>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -9879,22 +9881,22 @@
       <c r="AT87" t="inlineStr"/>
       <c r="AW87" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Stephen Hinton</t>
         </is>
       </c>
       <c r="AX87" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Stephen Hinton</t>
         </is>
       </c>
       <c r="AY87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>112371088</v>
+        <v>112366856</v>
       </c>
       <c r="B88" t="n">
-        <v>103755</v>
+        <v>96735</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -9903,41 +9905,42 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>578718</v>
+        <v>578467</v>
       </c>
       <c r="R88" t="n">
-        <v>6712055</v>
+        <v>6712023</v>
       </c>
       <c r="S88" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="T88" t="inlineStr">
         <is>
@@ -9964,9 +9967,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z88" t="inlineStr">
+        <is>
+          <t>12:13</t>
+        </is>
+      </c>
       <c r="AA88" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB88" t="inlineStr">
+        <is>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -9981,22 +9994,22 @@
       <c r="AT88" t="inlineStr"/>
       <c r="AW88" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX88" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>112371090</v>
+        <v>112366919</v>
       </c>
       <c r="B89" t="n">
-        <v>89755</v>
+        <v>96735</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10005,41 +10018,42 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>1101</v>
+        <v>220787</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Gropticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Postia guttulata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Peck) Jülich</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>578628</v>
+        <v>578474</v>
       </c>
       <c r="R89" t="n">
-        <v>6712141</v>
+        <v>6712022</v>
       </c>
       <c r="S89" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="T89" t="inlineStr">
         <is>
@@ -10066,9 +10080,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z89" t="inlineStr">
+        <is>
+          <t>12:18</t>
+        </is>
+      </c>
       <c r="AA89" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB89" t="inlineStr">
+        <is>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -10083,22 +10107,22 @@
       <c r="AT89" t="inlineStr"/>
       <c r="AW89" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX89" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>112367496</v>
+        <v>112371070</v>
       </c>
       <c r="B90" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10128,30 +10152,20 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>578380</v>
+        <v>578783</v>
       </c>
       <c r="R90" t="n">
-        <v>6712058</v>
+        <v>6711931</v>
       </c>
       <c r="S90" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T90" t="inlineStr">
         <is>
@@ -10178,19 +10192,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z90" t="inlineStr">
-        <is>
-          <t>12:53</t>
-        </is>
-      </c>
       <c r="AA90" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB90" t="inlineStr">
-        <is>
-          <t>12:53</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -10205,22 +10209,22 @@
       <c r="AT90" t="inlineStr"/>
       <c r="AW90" t="inlineStr">
         <is>
-          <t>FREDRIK Månsson</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX90" t="inlineStr">
         <is>
-          <t>FREDRIK Månsson</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>112371053</v>
+        <v>112371010</v>
       </c>
       <c r="B91" t="n">
-        <v>96720</v>
+        <v>56575</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -10229,38 +10233,46 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
           <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>578641</v>
+        <v>578638</v>
       </c>
       <c r="R91" t="n">
-        <v>6712145</v>
+        <v>6712116</v>
       </c>
       <c r="S91" t="n">
         <v>15</v>
@@ -10319,10 +10331,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>112371064</v>
+        <v>112371071</v>
       </c>
       <c r="B92" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -10359,10 +10371,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>578762</v>
+        <v>578786</v>
       </c>
       <c r="R92" t="n">
-        <v>6711980</v>
+        <v>6711934</v>
       </c>
       <c r="S92" t="n">
         <v>15</v>
@@ -10421,10 +10433,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>112371063</v>
+        <v>112371120</v>
       </c>
       <c r="B93" t="n">
-        <v>96720</v>
+        <v>98980</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -10433,25 +10445,25 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -10461,10 +10473,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>578719</v>
+        <v>578621</v>
       </c>
       <c r="R93" t="n">
-        <v>6712041</v>
+        <v>6712091</v>
       </c>
       <c r="S93" t="n">
         <v>15</v>
@@ -10523,10 +10535,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>112371071</v>
+        <v>112371114</v>
       </c>
       <c r="B94" t="n">
-        <v>96720</v>
+        <v>98980</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -10535,25 +10547,25 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -10563,10 +10575,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>578786</v>
+        <v>578422</v>
       </c>
       <c r="R94" t="n">
-        <v>6711934</v>
+        <v>6712031</v>
       </c>
       <c r="S94" t="n">
         <v>15</v>
@@ -10625,10 +10637,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>112371114</v>
+        <v>112370995</v>
       </c>
       <c r="B95" t="n">
-        <v>98961</v>
+        <v>94301</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -10637,25 +10649,25 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>222498</v>
+        <v>53</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -10665,10 +10677,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>578422</v>
+        <v>578551</v>
       </c>
       <c r="R95" t="n">
-        <v>6712031</v>
+        <v>6712153</v>
       </c>
       <c r="S95" t="n">
         <v>15</v>
@@ -10727,10 +10739,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>112370999</v>
+        <v>112371113</v>
       </c>
       <c r="B96" t="n">
-        <v>89503</v>
+        <v>98980</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -10743,21 +10755,21 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>5447</v>
+        <v>222498</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -10767,10 +10779,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>578842</v>
+        <v>578436</v>
       </c>
       <c r="R96" t="n">
-        <v>6711820</v>
+        <v>6711999</v>
       </c>
       <c r="S96" t="n">
         <v>15</v>
@@ -10829,10 +10841,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>112368348</v>
+        <v>112371116</v>
       </c>
       <c r="B97" t="n">
-        <v>96720</v>
+        <v>98980</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -10841,55 +10853,41 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>578592</v>
+        <v>578393</v>
       </c>
       <c r="R97" t="n">
-        <v>6712168</v>
+        <v>6712084</v>
       </c>
       <c r="S97" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T97" t="inlineStr">
         <is>
@@ -10916,19 +10914,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z97" t="inlineStr">
-        <is>
-          <t>13:39</t>
-        </is>
-      </c>
       <c r="AA97" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB97" t="inlineStr">
-        <is>
-          <t>13:39</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -10943,22 +10931,22 @@
       <c r="AT97" t="inlineStr"/>
       <c r="AW97" t="inlineStr">
         <is>
-          <t>Maj-Lis Koivisto</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX97" t="inlineStr">
         <is>
-          <t>Maj-Lis Koivisto</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>112371067</v>
+        <v>112366779</v>
       </c>
       <c r="B98" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -10989,16 +10977,17 @@
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>578762</v>
+        <v>578473</v>
       </c>
       <c r="R98" t="n">
-        <v>6711974</v>
+        <v>6712036</v>
       </c>
       <c r="S98" t="n">
         <v>15</v>
@@ -11028,9 +11017,24 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z98" t="inlineStr">
+        <is>
+          <t>12:10</t>
+        </is>
+      </c>
       <c r="AA98" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB98" t="inlineStr">
+        <is>
+          <t>12:10</t>
+        </is>
+      </c>
+      <c r="AC98" t="inlineStr">
+        <is>
+          <t>10 m2</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11045,22 +11049,22 @@
       <c r="AT98" t="inlineStr"/>
       <c r="AW98" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX98" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Bo karlstens, fanny westling, Philipp Weiss, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>112367457</v>
+        <v>112371052</v>
       </c>
       <c r="B99" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11091,20 +11095,19 @@
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>578454</v>
+        <v>578644</v>
       </c>
       <c r="R99" t="n">
-        <v>6712038</v>
+        <v>6712141</v>
       </c>
       <c r="S99" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="T99" t="inlineStr">
         <is>
@@ -11131,19 +11134,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z99" t="inlineStr">
-        <is>
-          <t>12:48</t>
-        </is>
-      </c>
       <c r="AA99" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB99" t="inlineStr">
-        <is>
-          <t>12:48</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -11158,22 +11151,22 @@
       <c r="AT99" t="inlineStr"/>
       <c r="AW99" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX99" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>112371038</v>
+        <v>112371074</v>
       </c>
       <c r="B100" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -11210,10 +11203,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>578400</v>
+        <v>578810</v>
       </c>
       <c r="R100" t="n">
-        <v>6712041</v>
+        <v>6711915</v>
       </c>
       <c r="S100" t="n">
         <v>15</v>
@@ -11272,10 +11265,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>112371120</v>
+        <v>112371069</v>
       </c>
       <c r="B101" t="n">
-        <v>98961</v>
+        <v>96735</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -11284,25 +11277,25 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -11312,10 +11305,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>578621</v>
+        <v>578778</v>
       </c>
       <c r="R101" t="n">
-        <v>6712091</v>
+        <v>6711932</v>
       </c>
       <c r="S101" t="n">
         <v>15</v>
@@ -11374,10 +11367,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>112368736</v>
+        <v>112371088</v>
       </c>
       <c r="B102" t="n">
-        <v>96720</v>
+        <v>103781</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -11386,55 +11379,41 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="P102" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>578521</v>
+        <v>578718</v>
       </c>
       <c r="R102" t="n">
-        <v>6712223</v>
+        <v>6712055</v>
       </c>
       <c r="S102" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T102" t="inlineStr">
         <is>
@@ -11461,19 +11440,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z102" t="inlineStr">
-        <is>
-          <t>14:10</t>
-        </is>
-      </c>
       <c r="AA102" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB102" t="inlineStr">
-        <is>
-          <t>14:10</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -11488,22 +11457,22 @@
       <c r="AT102" t="inlineStr"/>
       <c r="AW102" t="inlineStr">
         <is>
-          <t>Maj-Lis Koivisto</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX102" t="inlineStr">
         <is>
-          <t>Maj-Lis Koivisto</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>112370997</v>
+        <v>112367406</v>
       </c>
       <c r="B103" t="n">
-        <v>94287</v>
+        <v>96735</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -11512,41 +11481,42 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>53</v>
+        <v>220787</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="P103" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>578626</v>
+        <v>578468</v>
       </c>
       <c r="R103" t="n">
-        <v>6712142</v>
+        <v>6712047</v>
       </c>
       <c r="S103" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="T103" t="inlineStr">
         <is>
@@ -11573,9 +11543,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z103" t="inlineStr">
+        <is>
+          <t>12:43</t>
+        </is>
+      </c>
       <c r="AA103" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB103" t="inlineStr">
+        <is>
+          <t>12:43</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -11590,22 +11570,22 @@
       <c r="AT103" t="inlineStr"/>
       <c r="AW103" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX103" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>112367406</v>
+        <v>112367564</v>
       </c>
       <c r="B104" t="n">
-        <v>96720</v>
+        <v>98980</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -11614,25 +11594,25 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -11643,10 +11623,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>578468</v>
+        <v>578371</v>
       </c>
       <c r="R104" t="n">
-        <v>6712047</v>
+        <v>6712052</v>
       </c>
       <c r="S104" t="n">
         <v>1</v>
@@ -11678,7 +11658,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
@@ -11688,7 +11668,7 @@
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -11715,10 +11695,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>112366912</v>
+        <v>112370881</v>
       </c>
       <c r="B105" t="n">
-        <v>98961</v>
+        <v>73832</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -11727,42 +11707,44 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>222498</v>
+        <v>6486</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Skuggnål</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Chaenotheca sphaerocephala</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Nádv.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
       <c r="P105" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körberget, Gstr</t>
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>578473</v>
+        <v>578822</v>
       </c>
       <c r="R105" t="n">
-        <v>6712014</v>
+        <v>6711846</v>
       </c>
       <c r="S105" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T105" t="inlineStr">
         <is>
@@ -11786,22 +11768,17 @@
       </c>
       <c r="Y105" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="Z105" t="inlineStr">
-        <is>
-          <t>12:17</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB105" t="inlineStr">
-        <is>
-          <t>12:17</t>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="AC105" t="inlineStr">
+        <is>
+          <t>Trebuxoida alger</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -11810,28 +11787,43 @@
       <c r="AE105" t="b">
         <v>0</v>
       </c>
+      <c r="AF105" t="inlineStr">
+        <is>
+          <t>mikroskoperad</t>
+        </is>
+      </c>
       <c r="AG105" t="b">
         <v>0</v>
+      </c>
+      <c r="AO105" t="inlineStr">
+        <is>
+          <t>Bark och växtdelar i rotskreva på gran</t>
+        </is>
+      </c>
+      <c r="AQ105" t="inlineStr">
+        <is>
+          <t>Nicklas Gustavsson</t>
+        </is>
       </c>
       <c r="AT105" t="inlineStr"/>
       <c r="AW105" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AX105" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AY105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>112366779</v>
+        <v>112368736</v>
       </c>
       <c r="B106" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -11861,21 +11853,34 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P106" t="inlineStr">
         <is>
           <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>578473</v>
+        <v>578521</v>
       </c>
       <c r="R106" t="n">
-        <v>6712036</v>
+        <v>6712223</v>
       </c>
       <c r="S106" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T106" t="inlineStr">
         <is>
@@ -11904,7 +11909,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>14:10</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
@@ -11914,12 +11919,7 @@
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>12:10</t>
-        </is>
-      </c>
-      <c r="AC106" t="inlineStr">
-        <is>
-          <t>10 m2</t>
+          <t>14:10</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -11934,22 +11934,22 @@
       <c r="AT106" t="inlineStr"/>
       <c r="AW106" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Maj-Lis Koivisto</t>
         </is>
       </c>
       <c r="AX106" t="inlineStr">
         <is>
-          <t>Bo karlstens, fanny westling, Philipp Weiss, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Maj-Lis Koivisto</t>
         </is>
       </c>
       <c r="AY106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>112371119</v>
+        <v>112371063</v>
       </c>
       <c r="B107" t="n">
-        <v>98961</v>
+        <v>96735</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -11958,25 +11958,25 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -11986,10 +11986,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>578635</v>
+        <v>578719</v>
       </c>
       <c r="R107" t="n">
-        <v>6712118</v>
+        <v>6712041</v>
       </c>
       <c r="S107" t="n">
         <v>15</v>
@@ -12051,7 +12051,7 @@
         <v>112388770</v>
       </c>
       <c r="B108" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -12150,10 +12150,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>112388768</v>
+        <v>112388771</v>
       </c>
       <c r="B109" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -12190,10 +12190,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>578734</v>
+        <v>578844</v>
       </c>
       <c r="R109" t="n">
-        <v>6711966</v>
+        <v>6711759</v>
       </c>
       <c r="S109" t="n">
         <v>10</v>
@@ -12252,10 +12252,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>112388756</v>
+        <v>112388755</v>
       </c>
       <c r="B110" t="n">
-        <v>94287</v>
+        <v>94301</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -12292,10 +12292,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>578606</v>
+        <v>578533</v>
       </c>
       <c r="R110" t="n">
-        <v>6712141</v>
+        <v>6712173</v>
       </c>
       <c r="S110" t="n">
         <v>10</v>
@@ -12354,10 +12354,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>112388769</v>
+        <v>112388756</v>
       </c>
       <c r="B111" t="n">
-        <v>96720</v>
+        <v>94301</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -12366,25 +12366,25 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -12394,10 +12394,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>578822</v>
+        <v>578606</v>
       </c>
       <c r="R111" t="n">
-        <v>6711947</v>
+        <v>6712141</v>
       </c>
       <c r="S111" t="n">
         <v>10</v>
@@ -12456,10 +12456,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>112388755</v>
+        <v>112388769</v>
       </c>
       <c r="B112" t="n">
-        <v>94287</v>
+        <v>96735</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -12468,25 +12468,25 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>53</v>
+        <v>220787</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -12496,10 +12496,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>578533</v>
+        <v>578822</v>
       </c>
       <c r="R112" t="n">
-        <v>6712173</v>
+        <v>6711947</v>
       </c>
       <c r="S112" t="n">
         <v>10</v>
@@ -12561,7 +12561,7 @@
         <v>112388767</v>
       </c>
       <c r="B113" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -12660,10 +12660,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>112388771</v>
+        <v>112388768</v>
       </c>
       <c r="B114" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -12700,10 +12700,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>578844</v>
+        <v>578734</v>
       </c>
       <c r="R114" t="n">
-        <v>6711759</v>
+        <v>6711966</v>
       </c>
       <c r="S114" t="n">
         <v>10</v>

--- a/artfynd/A 38730-2023.xlsx
+++ b/artfynd/A 38730-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112369189</v>
+        <v>112368041</v>
       </c>
       <c r="B2" t="n">
-        <v>73772</v>
+        <v>96735</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,51 +692,55 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6426</v>
+        <v>220787</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bålar</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>578447</v>
+        <v>578593</v>
       </c>
       <c r="R2" t="n">
-        <v>6712315</v>
+        <v>6712103</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -765,7 +769,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -775,7 +779,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -802,10 +806,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112371104</v>
+        <v>112371071</v>
       </c>
       <c r="B3" t="n">
-        <v>90814</v>
+        <v>96735</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -814,25 +818,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4364</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -842,10 +846,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>578360</v>
+        <v>578786</v>
       </c>
       <c r="R3" t="n">
-        <v>6712274</v>
+        <v>6711934</v>
       </c>
       <c r="S3" t="n">
         <v>15</v>
@@ -904,10 +908,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112375654</v>
+        <v>112371060</v>
       </c>
       <c r="B4" t="n">
-        <v>90799</v>
+        <v>96735</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,44 +920,41 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1968</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Körbergs klack Ö, Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>578379</v>
+        <v>578726</v>
       </c>
       <c r="R4" t="n">
-        <v>6712231</v>
+        <v>6712073</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -980,47 +981,36 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Bo karlstens, fanny westling, Philipp Weiss, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112371044</v>
+        <v>112371042</v>
       </c>
       <c r="B5" t="n">
         <v>96735</v>
@@ -1060,10 +1050,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>578369</v>
+        <v>578327</v>
       </c>
       <c r="R5" t="n">
-        <v>6712329</v>
+        <v>6712326</v>
       </c>
       <c r="S5" t="n">
         <v>15</v>
@@ -1122,7 +1112,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112371039</v>
+        <v>112371065</v>
       </c>
       <c r="B6" t="n">
         <v>96735</v>
@@ -1162,10 +1152,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>578371</v>
+        <v>578756</v>
       </c>
       <c r="R6" t="n">
-        <v>6712368</v>
+        <v>6711975</v>
       </c>
       <c r="S6" t="n">
         <v>15</v>
@@ -1224,7 +1214,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112371045</v>
+        <v>112371073</v>
       </c>
       <c r="B7" t="n">
         <v>96735</v>
@@ -1264,10 +1254,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>578383</v>
+        <v>578799</v>
       </c>
       <c r="R7" t="n">
-        <v>6712331</v>
+        <v>6711927</v>
       </c>
       <c r="S7" t="n">
         <v>15</v>
@@ -1326,10 +1316,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112371093</v>
+        <v>112371011</v>
       </c>
       <c r="B8" t="n">
-        <v>90835</v>
+        <v>89072</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1342,21 +1332,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5964</v>
+        <v>256703</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1366,10 +1356,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>578358</v>
+        <v>578513</v>
       </c>
       <c r="R8" t="n">
-        <v>6712387</v>
+        <v>6712263</v>
       </c>
       <c r="S8" t="n">
         <v>15</v>
@@ -1428,10 +1418,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112367877</v>
+        <v>112368548</v>
       </c>
       <c r="B9" t="n">
-        <v>90858</v>
+        <v>79580</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1444,33 +1434,24 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5449</v>
+        <v>1049</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Tibell</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1478,13 +1459,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>578372</v>
+        <v>578578</v>
       </c>
       <c r="R9" t="n">
-        <v>6712298</v>
+        <v>6712190</v>
       </c>
       <c r="S9" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1513,7 +1494,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:19</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1523,7 +1504,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:19</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1538,22 +1519,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Stephen Hinton</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Bo karlstens, fanny westling, Philipp Weiss, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Stephen Hinton</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112371103</v>
+        <v>112366856</v>
       </c>
       <c r="B10" t="n">
-        <v>77321</v>
+        <v>96735</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1562,41 +1543,42 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>353</v>
+        <v>220787</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>578289</v>
+        <v>578467</v>
       </c>
       <c r="R10" t="n">
-        <v>6712298</v>
+        <v>6712023</v>
       </c>
       <c r="S10" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1623,9 +1605,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>12:13</t>
+        </is>
+      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1640,19 +1632,19 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112371043</v>
+        <v>112367511</v>
       </c>
       <c r="B11" t="n">
         <v>96735</v>
@@ -1685,20 +1677,30 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>578361</v>
+        <v>578373</v>
       </c>
       <c r="R11" t="n">
-        <v>6712335</v>
+        <v>6712055</v>
       </c>
       <c r="S11" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1725,9 +1727,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>12:56</t>
+        </is>
+      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1742,22 +1754,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>FREDRIK Månsson</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>FREDRIK Månsson</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112371030</v>
+        <v>112368348</v>
       </c>
       <c r="B12" t="n">
-        <v>90806</v>
+        <v>96735</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1766,41 +1778,55 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4361</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>578383</v>
+        <v>578592</v>
       </c>
       <c r="R12" t="n">
-        <v>6712258</v>
+        <v>6712168</v>
       </c>
       <c r="S12" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1827,9 +1853,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>13:39</t>
+        </is>
+      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1844,22 +1880,22 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Maj-Lis Koivisto</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Maj-Lis Koivisto</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112370994</v>
+        <v>112370881</v>
       </c>
       <c r="B13" t="n">
-        <v>94301</v>
+        <v>73832</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1868,41 +1904,44 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>53</v>
+        <v>6486</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Skuggnål</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Chaenotheca sphaerocephala</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>Nádv.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Körberget, Gstr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>578362</v>
+        <v>578822</v>
       </c>
       <c r="R13" t="n">
-        <v>6712340</v>
+        <v>6711846</v>
       </c>
       <c r="S13" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1926,12 +1965,17 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Trebuxoida alger</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1940,28 +1984,43 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>mikroskoperad</t>
+        </is>
+      </c>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Bark och växtdelar i rotskreva på gran</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>Nicklas Gustavsson</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112371021</v>
+        <v>112371051</v>
       </c>
       <c r="B14" t="n">
-        <v>90826</v>
+        <v>96735</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1970,25 +2029,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4366</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1998,10 +2057,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>578391</v>
+        <v>578632</v>
       </c>
       <c r="R14" t="n">
-        <v>6712213</v>
+        <v>6712136</v>
       </c>
       <c r="S14" t="n">
         <v>15</v>
@@ -2060,10 +2119,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112371092</v>
+        <v>112371088</v>
       </c>
       <c r="B15" t="n">
-        <v>90799</v>
+        <v>103781</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2072,25 +2131,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1968</v>
+        <v>221144</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2100,10 +2159,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>578370</v>
+        <v>578718</v>
       </c>
       <c r="R15" t="n">
-        <v>6712248</v>
+        <v>6712055</v>
       </c>
       <c r="S15" t="n">
         <v>15</v>
@@ -2144,7 +2203,6 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2163,10 +2221,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112371022</v>
+        <v>112371067</v>
       </c>
       <c r="B16" t="n">
-        <v>90826</v>
+        <v>96735</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2175,25 +2233,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4366</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2203,10 +2261,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>578468</v>
+        <v>578762</v>
       </c>
       <c r="R16" t="n">
-        <v>6712301</v>
+        <v>6711974</v>
       </c>
       <c r="S16" t="n">
         <v>15</v>
@@ -2265,10 +2323,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112371042</v>
+        <v>112371093</v>
       </c>
       <c r="B17" t="n">
-        <v>96735</v>
+        <v>90835</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2277,25 +2335,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>5964</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2305,10 +2363,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>578327</v>
+        <v>578358</v>
       </c>
       <c r="R17" t="n">
-        <v>6712326</v>
+        <v>6712387</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2367,10 +2425,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112371118</v>
+        <v>112368304</v>
       </c>
       <c r="B18" t="n">
-        <v>98980</v>
+        <v>96735</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2379,41 +2437,42 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>578398</v>
+        <v>578586</v>
       </c>
       <c r="R18" t="n">
-        <v>6712341</v>
+        <v>6712067</v>
       </c>
       <c r="S18" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2437,12 +2496,12 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2457,22 +2516,22 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112371091</v>
+        <v>112367564</v>
       </c>
       <c r="B19" t="n">
-        <v>90799</v>
+        <v>98980</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2481,41 +2540,42 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1968</v>
+        <v>222498</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>578379</v>
+        <v>578371</v>
       </c>
       <c r="R19" t="n">
-        <v>6712225</v>
+        <v>6712052</v>
       </c>
       <c r="S19" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2542,40 +2602,49 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>12:58</t>
+        </is>
+      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>12:58</t>
+        </is>
+      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112371087</v>
+        <v>112371063</v>
       </c>
       <c r="B20" t="n">
-        <v>90816</v>
+        <v>96735</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2584,25 +2653,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>788</v>
+        <v>220787</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Gul taggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum geogenium</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Banker</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2612,10 +2681,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>578378</v>
+        <v>578719</v>
       </c>
       <c r="R20" t="n">
-        <v>6712261</v>
+        <v>6712041</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2674,10 +2743,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112371105</v>
+        <v>112368228</v>
       </c>
       <c r="B21" t="n">
-        <v>90814</v>
+        <v>96735</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2686,41 +2755,42 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4364</v>
+        <v>220787</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>578469</v>
+        <v>578533</v>
       </c>
       <c r="R21" t="n">
-        <v>6712284</v>
+        <v>6712099</v>
       </c>
       <c r="S21" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2747,9 +2817,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>13:33</t>
+        </is>
+      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2764,22 +2844,22 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112371009</v>
+        <v>112371033</v>
       </c>
       <c r="B22" t="n">
-        <v>56575</v>
+        <v>90837</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2792,42 +2872,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>103021</v>
+        <v>5966</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>578387</v>
+        <v>578380</v>
       </c>
       <c r="R22" t="n">
-        <v>6712235</v>
+        <v>6712323</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -2886,10 +2958,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112371117</v>
+        <v>112371090</v>
       </c>
       <c r="B23" t="n">
-        <v>98980</v>
+        <v>89769</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2898,25 +2970,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>222498</v>
+        <v>1101</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Gropticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Postia guttulata</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Peck) Jülich</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2926,10 +2998,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>578391</v>
+        <v>578628</v>
       </c>
       <c r="R23" t="n">
-        <v>6712337</v>
+        <v>6712141</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -2988,10 +3060,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112371041</v>
+        <v>112369189</v>
       </c>
       <c r="B24" t="n">
-        <v>96735</v>
+        <v>73772</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3000,41 +3072,51 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>220787</v>
+        <v>6426</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>578365</v>
+        <v>578447</v>
       </c>
       <c r="R24" t="n">
-        <v>6712384</v>
+        <v>6712315</v>
       </c>
       <c r="S24" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3061,9 +3143,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>14:45</t>
+        </is>
+      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>14:45</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3078,22 +3170,22 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Maj-Lis Koivisto</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Maj-Lis Koivisto</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112371033</v>
+        <v>112371064</v>
       </c>
       <c r="B25" t="n">
-        <v>90837</v>
+        <v>96735</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3102,25 +3194,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5966</v>
+        <v>220787</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3130,10 +3222,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>578380</v>
+        <v>578762</v>
       </c>
       <c r="R25" t="n">
-        <v>6712323</v>
+        <v>6711980</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3192,7 +3284,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112367870</v>
+        <v>112366801</v>
       </c>
       <c r="B26" t="n">
         <v>96735</v>
@@ -3225,16 +3317,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3242,13 +3325,13 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>578369</v>
+        <v>578471</v>
       </c>
       <c r="R26" t="n">
-        <v>6712296</v>
+        <v>6712021</v>
       </c>
       <c r="S26" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3277,7 +3360,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>13:18</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3287,7 +3370,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>13:18</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3302,22 +3385,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>FREDRIK Månsson</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>FREDRIK Månsson</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112371020</v>
+        <v>112371069</v>
       </c>
       <c r="B27" t="n">
-        <v>90826</v>
+        <v>96735</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3326,25 +3409,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4366</v>
+        <v>220787</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3354,10 +3437,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>578387</v>
+        <v>578778</v>
       </c>
       <c r="R27" t="n">
-        <v>6712219</v>
+        <v>6711932</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3416,10 +3499,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112388762</v>
+        <v>112371050</v>
       </c>
       <c r="B28" t="n">
-        <v>90837</v>
+        <v>96735</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3428,41 +3511,41 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5966</v>
+        <v>220787</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Körbergsklack, Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>578379</v>
+        <v>578629</v>
       </c>
       <c r="R28" t="n">
-        <v>6712320</v>
+        <v>6712145</v>
       </c>
       <c r="S28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3506,19 +3589,19 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112388764</v>
+        <v>112371072</v>
       </c>
       <c r="B29" t="n">
         <v>96735</v>
@@ -3554,17 +3637,17 @@
       <c r="I29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Körbergsklack, Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>578382</v>
+        <v>578789</v>
       </c>
       <c r="R29" t="n">
-        <v>6712336</v>
+        <v>6711935</v>
       </c>
       <c r="S29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3608,22 +3691,22 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112388760</v>
+        <v>112371048</v>
       </c>
       <c r="B30" t="n">
-        <v>90858</v>
+        <v>96735</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3632,41 +3715,41 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5449</v>
+        <v>220787</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Körbergsklack, Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>578371</v>
+        <v>578589</v>
       </c>
       <c r="R30" t="n">
-        <v>6712300</v>
+        <v>6712135</v>
       </c>
       <c r="S30" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3710,22 +3793,22 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112388766</v>
+        <v>112371105</v>
       </c>
       <c r="B31" t="n">
-        <v>96735</v>
+        <v>90814</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3734,41 +3817,41 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>220787</v>
+        <v>4364</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Körbergsklack, Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>578376</v>
+        <v>578469</v>
       </c>
       <c r="R31" t="n">
-        <v>6712359</v>
+        <v>6712284</v>
       </c>
       <c r="S31" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3812,22 +3895,22 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112388765</v>
+        <v>112371387</v>
       </c>
       <c r="B32" t="n">
-        <v>96735</v>
+        <v>73832</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3840,37 +3923,40 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>220787</v>
+        <v>6486</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skuggnål</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Chaenotheca sphaerocephala</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Nádv.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Körbergsklack, Gstr</t>
+          <t>Körberget, Gstr</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>578382</v>
+        <v>578614</v>
       </c>
       <c r="R32" t="n">
-        <v>6712365</v>
+        <v>6712109</v>
       </c>
       <c r="S32" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -3894,12 +3980,12 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -3908,28 +3994,34 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
+      </c>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>Bark i rotskreva på grov gran</t>
+        </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112388761</v>
+        <v>112366779</v>
       </c>
       <c r="B33" t="n">
-        <v>90806</v>
+        <v>96735</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -3938,41 +4030,42 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4361</v>
+        <v>220787</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Körbergsklack, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>578383</v>
+        <v>578473</v>
       </c>
       <c r="R33" t="n">
-        <v>6712255</v>
+        <v>6712036</v>
       </c>
       <c r="S33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -3999,9 +4092,24 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>12:10</t>
+        </is>
+      </c>
       <c r="AA33" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>12:10</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>10 m2</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4016,22 +4124,22 @@
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Bo karlstens, fanny westling, Philipp Weiss, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112388773</v>
+        <v>112366780</v>
       </c>
       <c r="B34" t="n">
-        <v>90814</v>
+        <v>96735</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4040,38 +4148,48 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4364</v>
+        <v>220787</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Körbergsklack, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>578468</v>
+        <v>578472</v>
       </c>
       <c r="R34" t="n">
-        <v>6712289</v>
+        <v>6712040</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4101,9 +4219,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>12:09</t>
+        </is>
+      </c>
       <c r="AA34" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4118,22 +4246,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Stephen Hinton</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Stephen Hinton</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112388774</v>
+        <v>112371103</v>
       </c>
       <c r="B35" t="n">
-        <v>90808</v>
+        <v>77321</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4146,40 +4274,37 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4362</v>
+        <v>353</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Körbergsklack, Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>578380</v>
+        <v>578289</v>
       </c>
       <c r="R35" t="n">
-        <v>6712240</v>
+        <v>6712298</v>
       </c>
       <c r="S35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4217,29 +4342,28 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
-      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>fanny westling, Bo karlstens, Philipp Weiss</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112388772</v>
+        <v>112371114</v>
       </c>
       <c r="B36" t="n">
-        <v>90814</v>
+        <v>98980</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4252,37 +4376,37 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4364</v>
+        <v>222498</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Körbergsklack, Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>578357</v>
+        <v>578422</v>
       </c>
       <c r="R36" t="n">
-        <v>6712262</v>
+        <v>6712031</v>
       </c>
       <c r="S36" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4326,19 +4450,19 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112368041</v>
+        <v>112371066</v>
       </c>
       <c r="B37" t="n">
         <v>96735</v>
@@ -4371,31 +4495,17 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>578593</v>
+        <v>578758</v>
       </c>
       <c r="R37" t="n">
-        <v>6712103</v>
+        <v>6711984</v>
       </c>
       <c r="S37" t="n">
         <v>15</v>
@@ -4425,19 +4535,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>13:21</t>
-        </is>
-      </c>
       <c r="AA37" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>13:21</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4452,22 +4552,22 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Maj-Lis Koivisto</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Maj-Lis Koivisto</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112366785</v>
+        <v>112371039</v>
       </c>
       <c r="B38" t="n">
-        <v>98980</v>
+        <v>96735</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4476,51 +4576,41 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>578467</v>
+        <v>578371</v>
       </c>
       <c r="R38" t="n">
-        <v>6711997</v>
+        <v>6712368</v>
       </c>
       <c r="S38" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -4547,19 +4637,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>12:10</t>
-        </is>
-      </c>
       <c r="AA38" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>12:10</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4574,22 +4654,22 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>FREDRIK Månsson</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>FREDRIK Månsson</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112371017</v>
+        <v>112371074</v>
       </c>
       <c r="B39" t="n">
-        <v>89499</v>
+        <v>96735</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4598,41 +4678,38 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>112</v>
+        <v>220787</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>578628</v>
+        <v>578810</v>
       </c>
       <c r="R39" t="n">
-        <v>6712144</v>
+        <v>6711915</v>
       </c>
       <c r="S39" t="n">
         <v>15</v>
@@ -4673,7 +4750,6 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
-      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
@@ -4692,7 +4768,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112371072</v>
+        <v>112371059</v>
       </c>
       <c r="B40" t="n">
         <v>96735</v>
@@ -4732,10 +4808,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>578789</v>
+        <v>578728</v>
       </c>
       <c r="R40" t="n">
-        <v>6711935</v>
+        <v>6712078</v>
       </c>
       <c r="S40" t="n">
         <v>15</v>
@@ -4794,10 +4870,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112367472</v>
+        <v>112371049</v>
       </c>
       <c r="B41" t="n">
-        <v>98980</v>
+        <v>96735</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -4806,42 +4882,41 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>578417</v>
+        <v>578588</v>
       </c>
       <c r="R41" t="n">
-        <v>6712028</v>
+        <v>6712130</v>
       </c>
       <c r="S41" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -4868,19 +4943,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>12:50</t>
-        </is>
-      </c>
       <c r="AA41" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>12:50</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -4895,12 +4960,12 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
@@ -5009,10 +5074,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112370999</v>
+        <v>112371037</v>
       </c>
       <c r="B43" t="n">
-        <v>89517</v>
+        <v>96735</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5021,25 +5086,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5049,10 +5114,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>578842</v>
+        <v>578447</v>
       </c>
       <c r="R43" t="n">
-        <v>6711820</v>
+        <v>6712038</v>
       </c>
       <c r="S43" t="n">
         <v>15</v>
@@ -5111,10 +5176,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>112367483</v>
+        <v>112371091</v>
       </c>
       <c r="B44" t="n">
-        <v>96735</v>
+        <v>90799</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5123,51 +5188,41 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>220787</v>
+        <v>1968</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr"/>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>578406</v>
+        <v>578379</v>
       </c>
       <c r="R44" t="n">
-        <v>6712052</v>
+        <v>6712225</v>
       </c>
       <c r="S44" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5194,49 +5249,40 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>12:51</t>
-        </is>
-      </c>
       <c r="AA44" t="inlineStr">
         <is>
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="AB44" t="inlineStr">
-        <is>
-          <t>12:51</t>
-        </is>
-      </c>
       <c r="AD44" t="b">
         <v>0</v>
       </c>
       <c r="AE44" t="b">
         <v>0</v>
       </c>
+      <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="b">
         <v>0</v>
       </c>
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>FREDRIK Månsson</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>FREDRIK Månsson</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>112371107</v>
+        <v>112371118</v>
       </c>
       <c r="B45" t="n">
-        <v>90814</v>
+        <v>98980</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5249,21 +5295,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4364</v>
+        <v>222498</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5273,10 +5319,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>578769</v>
+        <v>578398</v>
       </c>
       <c r="R45" t="n">
-        <v>6712012</v>
+        <v>6712341</v>
       </c>
       <c r="S45" t="n">
         <v>15</v>
@@ -5335,7 +5381,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112367497</v>
+        <v>112371120</v>
       </c>
       <c r="B46" t="n">
         <v>98980</v>
@@ -5369,20 +5415,19 @@
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>578413</v>
+        <v>578621</v>
       </c>
       <c r="R46" t="n">
-        <v>6712038</v>
+        <v>6712091</v>
       </c>
       <c r="S46" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5409,19 +5454,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>12:53</t>
-        </is>
-      </c>
       <c r="AA46" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB46" t="inlineStr">
-        <is>
-          <t>12:53</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5436,22 +5471,22 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112367463</v>
+        <v>112371010</v>
       </c>
       <c r="B47" t="n">
-        <v>96735</v>
+        <v>56575</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5460,42 +5495,49 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>578432</v>
+        <v>578638</v>
       </c>
       <c r="R47" t="n">
-        <v>6712038</v>
+        <v>6712116</v>
       </c>
       <c r="S47" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -5522,19 +5564,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>12:48</t>
-        </is>
-      </c>
       <c r="AA47" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB47" t="inlineStr">
-        <is>
-          <t>12:48</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5549,22 +5581,22 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112371053</v>
+        <v>112371189</v>
       </c>
       <c r="B48" t="n">
-        <v>96735</v>
+        <v>94301</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5573,41 +5605,45 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Körberget, Gstr</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>578641</v>
+        <v>578633</v>
       </c>
       <c r="R48" t="n">
-        <v>6712145</v>
+        <v>6712149</v>
       </c>
       <c r="S48" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -5631,12 +5667,17 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>Mycket rikligt</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5645,28 +5686,34 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
+      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
+      </c>
+      <c r="AO48" t="inlineStr">
+        <is>
+          <t>Ved, granlåga</t>
+        </is>
       </c>
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112371090</v>
+        <v>112367497</v>
       </c>
       <c r="B49" t="n">
-        <v>89769</v>
+        <v>98980</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5675,41 +5722,42 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1101</v>
+        <v>222498</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Gropticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Postia guttulata</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Peck) Jülich</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>578628</v>
+        <v>578413</v>
       </c>
       <c r="R49" t="n">
-        <v>6712141</v>
+        <v>6712038</v>
       </c>
       <c r="S49" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -5736,9 +5784,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>12:53</t>
+        </is>
+      </c>
       <c r="AA49" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>12:53</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5753,22 +5811,22 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>112371011</v>
+        <v>112366785</v>
       </c>
       <c r="B50" t="n">
-        <v>89072</v>
+        <v>98980</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -5781,37 +5839,47 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>256703</v>
+        <v>222498</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>578513</v>
+        <v>578467</v>
       </c>
       <c r="R50" t="n">
-        <v>6712263</v>
+        <v>6711997</v>
       </c>
       <c r="S50" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -5838,9 +5906,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>12:10</t>
+        </is>
+      </c>
       <c r="AA50" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -5855,19 +5933,19 @@
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>FREDRIK Månsson</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>FREDRIK Månsson</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>112371048</v>
+        <v>112367870</v>
       </c>
       <c r="B51" t="n">
         <v>96735</v>
@@ -5900,20 +5978,30 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>578589</v>
+        <v>578369</v>
       </c>
       <c r="R51" t="n">
-        <v>6712135</v>
+        <v>6712296</v>
       </c>
       <c r="S51" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -5940,9 +6028,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>13:18</t>
+        </is>
+      </c>
       <c r="AA51" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>13:18</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -5957,22 +6055,22 @@
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>FREDRIK Månsson</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>FREDRIK Månsson</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112368348</v>
+        <v>112370997</v>
       </c>
       <c r="B52" t="n">
-        <v>96735</v>
+        <v>94301</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -5981,55 +6079,41 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>(Nees ex Lindenb.) Meyl.</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>578592</v>
+        <v>578626</v>
       </c>
       <c r="R52" t="n">
-        <v>6712168</v>
+        <v>6712142</v>
       </c>
       <c r="S52" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6056,19 +6140,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr">
-        <is>
-          <t>13:39</t>
-        </is>
-      </c>
       <c r="AA52" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB52" t="inlineStr">
-        <is>
-          <t>13:39</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6083,22 +6157,22 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Maj-Lis Koivisto</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Maj-Lis Koivisto</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112367457</v>
+        <v>112370994</v>
       </c>
       <c r="B53" t="n">
-        <v>96735</v>
+        <v>94301</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6107,42 +6181,41 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>578454</v>
+        <v>578362</v>
       </c>
       <c r="R53" t="n">
-        <v>6712038</v>
+        <v>6712340</v>
       </c>
       <c r="S53" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6169,19 +6242,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>12:48</t>
-        </is>
-      </c>
       <c r="AA53" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB53" t="inlineStr">
-        <is>
-          <t>12:48</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6196,19 +6259,19 @@
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112367487</v>
+        <v>112368643</v>
       </c>
       <c r="B54" t="n">
         <v>96735</v>
@@ -6249,13 +6312,13 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>578405</v>
+        <v>578578</v>
       </c>
       <c r="R54" t="n">
-        <v>6712050</v>
+        <v>6712190</v>
       </c>
       <c r="S54" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -6284,7 +6347,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6294,7 +6357,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6309,22 +6372,22 @@
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Stephen Hinton</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Stephen Hinton</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>112368304</v>
+        <v>112375654</v>
       </c>
       <c r="B55" t="n">
-        <v>96735</v>
+        <v>90799</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6333,42 +6396,44 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>220787</v>
+        <v>1968</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergs klack Ö, Gstr</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>578586</v>
+        <v>578379</v>
       </c>
       <c r="R55" t="n">
-        <v>6712067</v>
+        <v>6712231</v>
       </c>
       <c r="S55" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -6392,12 +6457,22 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6406,28 +6481,29 @@
       <c r="AE55" t="b">
         <v>0</v>
       </c>
+      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
       </c>
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Bo karlstens, fanny westling, Philipp Weiss, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112371387</v>
+        <v>112367487</v>
       </c>
       <c r="B56" t="n">
-        <v>73832</v>
+        <v>96735</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6440,40 +6516,38 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6486</v>
+        <v>220787</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Skuggnål</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Chaenotheca sphaerocephala</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Nádv.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Körberget, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>578614</v>
+        <v>578405</v>
       </c>
       <c r="R56" t="n">
-        <v>6712109</v>
+        <v>6712050</v>
       </c>
       <c r="S56" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -6497,12 +6571,22 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6511,34 +6595,28 @@
       <c r="AE56" t="b">
         <v>0</v>
       </c>
-      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="b">
         <v>0</v>
-      </c>
-      <c r="AO56" t="inlineStr">
-        <is>
-          <t>Bark i rotskreva på grov gran</t>
-        </is>
       </c>
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Nicklas Gustavsson</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Nicklas Gustavsson</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112371189</v>
+        <v>112367483</v>
       </c>
       <c r="B57" t="n">
-        <v>94301</v>
+        <v>96735</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6547,45 +6625,51 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>53</v>
+        <v>220787</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Körberget, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>578633</v>
+        <v>578406</v>
       </c>
       <c r="R57" t="n">
-        <v>6712149</v>
+        <v>6712052</v>
       </c>
       <c r="S57" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -6609,17 +6693,22 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>12:51</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
-        </is>
-      </c>
-      <c r="AC57" t="inlineStr">
-        <is>
-          <t>Mycket rikligt</t>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>12:51</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6628,34 +6717,28 @@
       <c r="AE57" t="b">
         <v>0</v>
       </c>
-      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
-      </c>
-      <c r="AO57" t="inlineStr">
-        <is>
-          <t>Ved, granlåga</t>
-        </is>
       </c>
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Nicklas Gustavsson</t>
+          <t>FREDRIK Månsson</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Nicklas Gustavsson</t>
+          <t>FREDRIK Månsson</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112367496</v>
+        <v>112371117</v>
       </c>
       <c r="B58" t="n">
-        <v>96735</v>
+        <v>98980</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6664,51 +6747,41 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>578380</v>
+        <v>578391</v>
       </c>
       <c r="R58" t="n">
-        <v>6712058</v>
+        <v>6712337</v>
       </c>
       <c r="S58" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -6735,19 +6808,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z58" t="inlineStr">
-        <is>
-          <t>12:53</t>
-        </is>
-      </c>
       <c r="AA58" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB58" t="inlineStr">
-        <is>
-          <t>12:53</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6762,22 +6825,22 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>FREDRIK Månsson</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>FREDRIK Månsson</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112371068</v>
+        <v>112371021</v>
       </c>
       <c r="B59" t="n">
-        <v>96735</v>
+        <v>90826</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -6786,25 +6849,25 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>220787</v>
+        <v>4366</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -6814,10 +6877,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>578760</v>
+        <v>578391</v>
       </c>
       <c r="R59" t="n">
-        <v>6711952</v>
+        <v>6712213</v>
       </c>
       <c r="S59" t="n">
         <v>15</v>
@@ -6876,7 +6939,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112371064</v>
+        <v>112368608</v>
       </c>
       <c r="B60" t="n">
         <v>96735</v>
@@ -6909,20 +6972,34 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>578762</v>
+        <v>578601</v>
       </c>
       <c r="R60" t="n">
-        <v>6711980</v>
+        <v>6712180</v>
       </c>
       <c r="S60" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -6949,9 +7026,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>13:54</t>
+        </is>
+      </c>
       <c r="AA60" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -6966,19 +7053,19 @@
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Maj-Lis Koivisto</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Maj-Lis Koivisto</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>112371065</v>
+        <v>112367463</v>
       </c>
       <c r="B61" t="n">
         <v>96735</v>
@@ -7012,19 +7099,20 @@
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>578756</v>
+        <v>578432</v>
       </c>
       <c r="R61" t="n">
-        <v>6711975</v>
+        <v>6712038</v>
       </c>
       <c r="S61" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -7051,9 +7139,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
       <c r="AA61" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7068,19 +7166,19 @@
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>112371061</v>
+        <v>112367457</v>
       </c>
       <c r="B62" t="n">
         <v>96735</v>
@@ -7114,19 +7212,20 @@
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>578724</v>
+        <v>578454</v>
       </c>
       <c r="R62" t="n">
-        <v>6712065</v>
+        <v>6712038</v>
       </c>
       <c r="S62" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -7153,9 +7252,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z62" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
       <c r="AA62" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7170,22 +7279,22 @@
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>112366801</v>
+        <v>112371009</v>
       </c>
       <c r="B63" t="n">
-        <v>96735</v>
+        <v>56575</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7194,42 +7303,49 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>578471</v>
+        <v>578387</v>
       </c>
       <c r="R63" t="n">
-        <v>6712021</v>
+        <v>6712235</v>
       </c>
       <c r="S63" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -7256,19 +7372,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z63" t="inlineStr">
-        <is>
-          <t>12:13</t>
-        </is>
-      </c>
       <c r="AA63" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB63" t="inlineStr">
-        <is>
-          <t>12:13</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7283,22 +7389,22 @@
       <c r="AT63" t="inlineStr"/>
       <c r="AW63" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX63" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>112371051</v>
+        <v>112371104</v>
       </c>
       <c r="B64" t="n">
-        <v>96735</v>
+        <v>90814</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7307,25 +7413,25 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>220787</v>
+        <v>4364</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7335,10 +7441,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>578632</v>
+        <v>578360</v>
       </c>
       <c r="R64" t="n">
-        <v>6712136</v>
+        <v>6712274</v>
       </c>
       <c r="S64" t="n">
         <v>15</v>
@@ -7397,10 +7503,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>112371119</v>
+        <v>112367406</v>
       </c>
       <c r="B65" t="n">
-        <v>98980</v>
+        <v>96735</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7409,41 +7515,42 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>578635</v>
+        <v>578468</v>
       </c>
       <c r="R65" t="n">
-        <v>6712118</v>
+        <v>6712047</v>
       </c>
       <c r="S65" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -7470,9 +7577,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z65" t="inlineStr">
+        <is>
+          <t>12:43</t>
+        </is>
+      </c>
       <c r="AA65" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>12:43</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7487,22 +7604,22 @@
       <c r="AT65" t="inlineStr"/>
       <c r="AW65" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX65" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>112371050</v>
+        <v>112367472</v>
       </c>
       <c r="B66" t="n">
-        <v>96735</v>
+        <v>98980</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7511,41 +7628,42 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>578629</v>
+        <v>578417</v>
       </c>
       <c r="R66" t="n">
-        <v>6712145</v>
+        <v>6712028</v>
       </c>
       <c r="S66" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -7572,9 +7690,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
       <c r="AA66" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -7589,22 +7717,22 @@
       <c r="AT66" t="inlineStr"/>
       <c r="AW66" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX66" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>112371049</v>
+        <v>112370995</v>
       </c>
       <c r="B67" t="n">
-        <v>96735</v>
+        <v>94301</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -7613,25 +7741,25 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -7641,10 +7769,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>578588</v>
+        <v>578551</v>
       </c>
       <c r="R67" t="n">
-        <v>6712130</v>
+        <v>6712153</v>
       </c>
       <c r="S67" t="n">
         <v>15</v>
@@ -7703,7 +7831,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>112371073</v>
+        <v>112371061</v>
       </c>
       <c r="B68" t="n">
         <v>96735</v>
@@ -7743,10 +7871,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>578799</v>
+        <v>578724</v>
       </c>
       <c r="R68" t="n">
-        <v>6711927</v>
+        <v>6712065</v>
       </c>
       <c r="S68" t="n">
         <v>15</v>
@@ -7805,10 +7933,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>112370997</v>
+        <v>112371092</v>
       </c>
       <c r="B69" t="n">
-        <v>94301</v>
+        <v>90799</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -7821,21 +7949,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>53</v>
+        <v>1968</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -7845,10 +7973,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>578626</v>
+        <v>578370</v>
       </c>
       <c r="R69" t="n">
-        <v>6712142</v>
+        <v>6712248</v>
       </c>
       <c r="S69" t="n">
         <v>15</v>
@@ -7889,6 +8017,7 @@
       <c r="AE69" t="b">
         <v>0</v>
       </c>
+      <c r="AF69" t="inlineStr"/>
       <c r="AG69" t="b">
         <v>0</v>
       </c>
@@ -7907,7 +8036,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>112371038</v>
+        <v>112371053</v>
       </c>
       <c r="B70" t="n">
         <v>96735</v>
@@ -7947,10 +8076,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>578400</v>
+        <v>578641</v>
       </c>
       <c r="R70" t="n">
-        <v>6712041</v>
+        <v>6712145</v>
       </c>
       <c r="S70" t="n">
         <v>15</v>
@@ -8009,10 +8138,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>112371067</v>
+        <v>112371107</v>
       </c>
       <c r="B71" t="n">
-        <v>96735</v>
+        <v>90814</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8021,25 +8150,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>220787</v>
+        <v>4364</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8049,10 +8178,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>578762</v>
+        <v>578769</v>
       </c>
       <c r="R71" t="n">
-        <v>6711974</v>
+        <v>6712012</v>
       </c>
       <c r="S71" t="n">
         <v>15</v>
@@ -8111,10 +8240,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>112371059</v>
+        <v>112370999</v>
       </c>
       <c r="B72" t="n">
-        <v>96735</v>
+        <v>89517</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8123,25 +8252,25 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8151,10 +8280,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>578728</v>
+        <v>578842</v>
       </c>
       <c r="R72" t="n">
-        <v>6712078</v>
+        <v>6711820</v>
       </c>
       <c r="S72" t="n">
         <v>15</v>
@@ -8213,10 +8342,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>112368548</v>
+        <v>112366912</v>
       </c>
       <c r="B73" t="n">
-        <v>79580</v>
+        <v>98980</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8225,25 +8354,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1049</v>
+        <v>222498</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8254,13 +8383,13 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>578578</v>
+        <v>578473</v>
       </c>
       <c r="R73" t="n">
-        <v>6712190</v>
+        <v>6712014</v>
       </c>
       <c r="S73" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
@@ -8289,7 +8418,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -8299,7 +8428,7 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8314,19 +8443,19 @@
       <c r="AT73" t="inlineStr"/>
       <c r="AW73" t="inlineStr">
         <is>
-          <t>Stephen Hinton</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX73" t="inlineStr">
         <is>
-          <t>Stephen Hinton</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>112368643</v>
+        <v>112366919</v>
       </c>
       <c r="B74" t="n">
         <v>96735</v>
@@ -8367,13 +8496,13 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>578578</v>
+        <v>578474</v>
       </c>
       <c r="R74" t="n">
-        <v>6712190</v>
+        <v>6712022</v>
       </c>
       <c r="S74" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
@@ -8402,7 +8531,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -8412,7 +8541,7 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8427,19 +8556,19 @@
       <c r="AT74" t="inlineStr"/>
       <c r="AW74" t="inlineStr">
         <is>
-          <t>Stephen Hinton</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX74" t="inlineStr">
         <is>
-          <t>Stephen Hinton</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>112371060</v>
+        <v>112371052</v>
       </c>
       <c r="B75" t="n">
         <v>96735</v>
@@ -8479,10 +8608,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>578726</v>
+        <v>578644</v>
       </c>
       <c r="R75" t="n">
-        <v>6712073</v>
+        <v>6712141</v>
       </c>
       <c r="S75" t="n">
         <v>15</v>
@@ -8541,10 +8670,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>112371046</v>
+        <v>112371022</v>
       </c>
       <c r="B76" t="n">
-        <v>96735</v>
+        <v>90826</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -8553,25 +8682,25 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>220787</v>
+        <v>4366</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -8581,10 +8710,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>578555</v>
+        <v>578468</v>
       </c>
       <c r="R76" t="n">
-        <v>6712144</v>
+        <v>6712301</v>
       </c>
       <c r="S76" t="n">
         <v>15</v>
@@ -8643,10 +8772,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>112371115</v>
+        <v>112371030</v>
       </c>
       <c r="B77" t="n">
-        <v>98980</v>
+        <v>90806</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -8655,25 +8784,25 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>222498</v>
+        <v>4361</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -8683,10 +8812,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>578380</v>
+        <v>578383</v>
       </c>
       <c r="R77" t="n">
-        <v>6712058</v>
+        <v>6712258</v>
       </c>
       <c r="S77" t="n">
         <v>15</v>
@@ -8745,7 +8874,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>112371037</v>
+        <v>112371046</v>
       </c>
       <c r="B78" t="n">
         <v>96735</v>
@@ -8785,10 +8914,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>578447</v>
+        <v>578555</v>
       </c>
       <c r="R78" t="n">
-        <v>6712038</v>
+        <v>6712144</v>
       </c>
       <c r="S78" t="n">
         <v>15</v>
@@ -8847,10 +8976,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>112367511</v>
+        <v>112371087</v>
       </c>
       <c r="B79" t="n">
-        <v>96735</v>
+        <v>90816</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -8859,51 +8988,41 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>220787</v>
+        <v>788</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gul taggsvamp</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum geogenium</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr"/>
+          <t>(Fr.) Banker</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>578373</v>
+        <v>578378</v>
       </c>
       <c r="R79" t="n">
-        <v>6712055</v>
+        <v>6712261</v>
       </c>
       <c r="S79" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
@@ -8930,19 +9049,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z79" t="inlineStr">
-        <is>
-          <t>12:56</t>
-        </is>
-      </c>
       <c r="AA79" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB79" t="inlineStr">
-        <is>
-          <t>12:56</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -8957,19 +9066,19 @@
       <c r="AT79" t="inlineStr"/>
       <c r="AW79" t="inlineStr">
         <is>
-          <t>FREDRIK Månsson</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX79" t="inlineStr">
         <is>
-          <t>FREDRIK Månsson</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>112366860</v>
+        <v>112371045</v>
       </c>
       <c r="B80" t="n">
         <v>96735</v>
@@ -9002,30 +9111,20 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>578426</v>
+        <v>578383</v>
       </c>
       <c r="R80" t="n">
-        <v>6712038</v>
+        <v>6712331</v>
       </c>
       <c r="S80" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
@@ -9052,19 +9151,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z80" t="inlineStr">
-        <is>
-          <t>12:12</t>
-        </is>
-      </c>
       <c r="AA80" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB80" t="inlineStr">
-        <is>
-          <t>12:12</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9079,22 +9168,22 @@
       <c r="AT80" t="inlineStr"/>
       <c r="AW80" t="inlineStr">
         <is>
-          <t>FREDRIK Månsson</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX80" t="inlineStr">
         <is>
-          <t>FREDRIK Månsson</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>112366922</v>
+        <v>112371041</v>
       </c>
       <c r="B81" t="n">
-        <v>98980</v>
+        <v>96735</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9103,42 +9192,41 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>578469</v>
+        <v>578365</v>
       </c>
       <c r="R81" t="n">
-        <v>6712020</v>
+        <v>6712384</v>
       </c>
       <c r="S81" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
@@ -9165,19 +9253,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z81" t="inlineStr">
-        <is>
-          <t>12:18</t>
-        </is>
-      </c>
       <c r="AA81" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB81" t="inlineStr">
-        <is>
-          <t>12:18</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9192,19 +9270,19 @@
       <c r="AT81" t="inlineStr"/>
       <c r="AW81" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX81" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>112366912</v>
+        <v>112371116</v>
       </c>
       <c r="B82" t="n">
         <v>98980</v>
@@ -9238,20 +9316,19 @@
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>578473</v>
+        <v>578393</v>
       </c>
       <c r="R82" t="n">
-        <v>6712014</v>
+        <v>6712084</v>
       </c>
       <c r="S82" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
@@ -9278,19 +9355,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z82" t="inlineStr">
-        <is>
-          <t>12:17</t>
-        </is>
-      </c>
       <c r="AA82" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB82" t="inlineStr">
-        <is>
-          <t>12:17</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -9305,22 +9372,22 @@
       <c r="AT82" t="inlineStr"/>
       <c r="AW82" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX82" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>112371066</v>
+        <v>112371119</v>
       </c>
       <c r="B83" t="n">
-        <v>96735</v>
+        <v>98980</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9329,25 +9396,25 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -9357,10 +9424,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>578758</v>
+        <v>578635</v>
       </c>
       <c r="R83" t="n">
-        <v>6711984</v>
+        <v>6712118</v>
       </c>
       <c r="S83" t="n">
         <v>15</v>
@@ -9419,10 +9486,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>112368228</v>
+        <v>112367877</v>
       </c>
       <c r="B84" t="n">
-        <v>96735</v>
+        <v>90858</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -9431,28 +9498,37 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>220787</v>
+        <v>5449</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr"/>
+          <t>(Fr.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
@@ -9460,13 +9536,13 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>578533</v>
+        <v>578372</v>
       </c>
       <c r="R84" t="n">
-        <v>6712099</v>
+        <v>6712298</v>
       </c>
       <c r="S84" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="T84" t="inlineStr">
         <is>
@@ -9495,7 +9571,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>13:19</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
@@ -9505,7 +9581,7 @@
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>13:19</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -9520,19 +9596,19 @@
       <c r="AT84" t="inlineStr"/>
       <c r="AW84" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX84" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Bo karlstens, fanny westling, Philipp Weiss, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>112368608</v>
+        <v>112366860</v>
       </c>
       <c r="B85" t="n">
         <v>96735</v>
@@ -9567,32 +9643,28 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
           <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>578601</v>
+        <v>578426</v>
       </c>
       <c r="R85" t="n">
-        <v>6712180</v>
+        <v>6712038</v>
       </c>
       <c r="S85" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T85" t="inlineStr">
         <is>
@@ -9621,7 +9693,7 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
@@ -9631,7 +9703,7 @@
       </c>
       <c r="AB85" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -9646,12 +9718,12 @@
       <c r="AT85" t="inlineStr"/>
       <c r="AW85" t="inlineStr">
         <is>
-          <t>Maj-Lis Koivisto</t>
+          <t>FREDRIK Månsson</t>
         </is>
       </c>
       <c r="AX85" t="inlineStr">
         <is>
-          <t>Maj-Lis Koivisto</t>
+          <t>FREDRIK Månsson</t>
         </is>
       </c>
       <c r="AY85" t="inlineStr"/>
@@ -9771,10 +9843,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>112366780</v>
+        <v>112371017</v>
       </c>
       <c r="B87" t="n">
-        <v>96735</v>
+        <v>89499</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -9783,51 +9855,44 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>220787</v>
+        <v>112</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
+          <t>Pat.</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>578472</v>
+        <v>578628</v>
       </c>
       <c r="R87" t="n">
-        <v>6712040</v>
+        <v>6712144</v>
       </c>
       <c r="S87" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T87" t="inlineStr">
         <is>
@@ -9854,49 +9919,40 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z87" t="inlineStr">
-        <is>
-          <t>12:09</t>
-        </is>
-      </c>
       <c r="AA87" t="inlineStr">
         <is>
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="AB87" t="inlineStr">
-        <is>
-          <t>12:09</t>
-        </is>
-      </c>
       <c r="AD87" t="b">
         <v>0</v>
       </c>
       <c r="AE87" t="b">
         <v>0</v>
       </c>
+      <c r="AF87" t="inlineStr"/>
       <c r="AG87" t="b">
         <v>0</v>
       </c>
       <c r="AT87" t="inlineStr"/>
       <c r="AW87" t="inlineStr">
         <is>
-          <t>Stephen Hinton</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX87" t="inlineStr">
         <is>
-          <t>Stephen Hinton</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>112366856</v>
+        <v>112371020</v>
       </c>
       <c r="B88" t="n">
-        <v>96735</v>
+        <v>90826</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -9905,42 +9961,41 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>220787</v>
+        <v>4366</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>578467</v>
+        <v>578387</v>
       </c>
       <c r="R88" t="n">
-        <v>6712023</v>
+        <v>6712219</v>
       </c>
       <c r="S88" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="T88" t="inlineStr">
         <is>
@@ -9967,19 +10022,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z88" t="inlineStr">
-        <is>
-          <t>12:13</t>
-        </is>
-      </c>
       <c r="AA88" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB88" t="inlineStr">
-        <is>
-          <t>12:13</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -9994,19 +10039,19 @@
       <c r="AT88" t="inlineStr"/>
       <c r="AW88" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX88" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>112366919</v>
+        <v>112371068</v>
       </c>
       <c r="B89" t="n">
         <v>96735</v>
@@ -10040,20 +10085,19 @@
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>578474</v>
+        <v>578760</v>
       </c>
       <c r="R89" t="n">
-        <v>6712022</v>
+        <v>6711952</v>
       </c>
       <c r="S89" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="T89" t="inlineStr">
         <is>
@@ -10080,19 +10124,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z89" t="inlineStr">
-        <is>
-          <t>12:18</t>
-        </is>
-      </c>
       <c r="AA89" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB89" t="inlineStr">
-        <is>
-          <t>12:18</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -10107,19 +10141,19 @@
       <c r="AT89" t="inlineStr"/>
       <c r="AW89" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX89" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>112371070</v>
+        <v>112367496</v>
       </c>
       <c r="B90" t="n">
         <v>96735</v>
@@ -10152,20 +10186,30 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>578783</v>
+        <v>578380</v>
       </c>
       <c r="R90" t="n">
-        <v>6711931</v>
+        <v>6712058</v>
       </c>
       <c r="S90" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="T90" t="inlineStr">
         <is>
@@ -10192,9 +10236,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z90" t="inlineStr">
+        <is>
+          <t>12:53</t>
+        </is>
+      </c>
       <c r="AA90" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB90" t="inlineStr">
+        <is>
+          <t>12:53</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -10209,22 +10263,22 @@
       <c r="AT90" t="inlineStr"/>
       <c r="AW90" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>FREDRIK Månsson</t>
         </is>
       </c>
       <c r="AX90" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>FREDRIK Månsson</t>
         </is>
       </c>
       <c r="AY90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>112371010</v>
+        <v>112371044</v>
       </c>
       <c r="B91" t="n">
-        <v>56575</v>
+        <v>96735</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -10233,46 +10287,38 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
           <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>578638</v>
+        <v>578369</v>
       </c>
       <c r="R91" t="n">
-        <v>6712116</v>
+        <v>6712329</v>
       </c>
       <c r="S91" t="n">
         <v>15</v>
@@ -10331,7 +10377,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>112371071</v>
+        <v>112371043</v>
       </c>
       <c r="B92" t="n">
         <v>96735</v>
@@ -10371,10 +10417,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>578786</v>
+        <v>578361</v>
       </c>
       <c r="R92" t="n">
-        <v>6711934</v>
+        <v>6712335</v>
       </c>
       <c r="S92" t="n">
         <v>15</v>
@@ -10433,10 +10479,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>112371120</v>
+        <v>112371070</v>
       </c>
       <c r="B93" t="n">
-        <v>98980</v>
+        <v>96735</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -10445,25 +10491,25 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -10473,10 +10519,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>578621</v>
+        <v>578783</v>
       </c>
       <c r="R93" t="n">
-        <v>6712091</v>
+        <v>6711931</v>
       </c>
       <c r="S93" t="n">
         <v>15</v>
@@ -10535,10 +10581,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>112371114</v>
+        <v>112371038</v>
       </c>
       <c r="B94" t="n">
-        <v>98980</v>
+        <v>96735</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -10547,25 +10593,25 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -10575,10 +10621,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>578422</v>
+        <v>578400</v>
       </c>
       <c r="R94" t="n">
-        <v>6712031</v>
+        <v>6712041</v>
       </c>
       <c r="S94" t="n">
         <v>15</v>
@@ -10637,10 +10683,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>112370995</v>
+        <v>112366922</v>
       </c>
       <c r="B95" t="n">
-        <v>94301</v>
+        <v>98980</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -10649,41 +10695,42 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>53</v>
+        <v>222498</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>578551</v>
+        <v>578469</v>
       </c>
       <c r="R95" t="n">
-        <v>6712153</v>
+        <v>6712020</v>
       </c>
       <c r="S95" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="T95" t="inlineStr">
         <is>
@@ -10710,9 +10757,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z95" t="inlineStr">
+        <is>
+          <t>12:18</t>
+        </is>
+      </c>
       <c r="AA95" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB95" t="inlineStr">
+        <is>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -10727,22 +10784,22 @@
       <c r="AT95" t="inlineStr"/>
       <c r="AW95" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX95" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>112371113</v>
+        <v>112368736</v>
       </c>
       <c r="B96" t="n">
-        <v>98980</v>
+        <v>96735</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -10751,41 +10808,55 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>578436</v>
+        <v>578521</v>
       </c>
       <c r="R96" t="n">
-        <v>6711999</v>
+        <v>6712223</v>
       </c>
       <c r="S96" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T96" t="inlineStr">
         <is>
@@ -10812,9 +10883,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z96" t="inlineStr">
+        <is>
+          <t>14:10</t>
+        </is>
+      </c>
       <c r="AA96" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB96" t="inlineStr">
+        <is>
+          <t>14:10</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -10829,19 +10910,19 @@
       <c r="AT96" t="inlineStr"/>
       <c r="AW96" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Maj-Lis Koivisto</t>
         </is>
       </c>
       <c r="AX96" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Maj-Lis Koivisto</t>
         </is>
       </c>
       <c r="AY96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>112371116</v>
+        <v>112371113</v>
       </c>
       <c r="B97" t="n">
         <v>98980</v>
@@ -10881,10 +10962,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>578393</v>
+        <v>578436</v>
       </c>
       <c r="R97" t="n">
-        <v>6712084</v>
+        <v>6711999</v>
       </c>
       <c r="S97" t="n">
         <v>15</v>
@@ -10943,10 +11024,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>112366779</v>
+        <v>112371115</v>
       </c>
       <c r="B98" t="n">
-        <v>96735</v>
+        <v>98980</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -10955,39 +11036,38 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>578473</v>
+        <v>578380</v>
       </c>
       <c r="R98" t="n">
-        <v>6712036</v>
+        <v>6712058</v>
       </c>
       <c r="S98" t="n">
         <v>15</v>
@@ -11017,24 +11097,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z98" t="inlineStr">
-        <is>
-          <t>12:10</t>
-        </is>
-      </c>
       <c r="AA98" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB98" t="inlineStr">
-        <is>
-          <t>12:10</t>
-        </is>
-      </c>
-      <c r="AC98" t="inlineStr">
-        <is>
-          <t>10 m2</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11049,22 +11114,22 @@
       <c r="AT98" t="inlineStr"/>
       <c r="AW98" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX98" t="inlineStr">
         <is>
-          <t>Bo karlstens, fanny westling, Philipp Weiss, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>112371052</v>
+        <v>112388774</v>
       </c>
       <c r="B99" t="n">
-        <v>96735</v>
+        <v>90808</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11073,41 +11138,44 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>220787</v>
+        <v>4362</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Körbergsklack, Gstr</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>578644</v>
+        <v>578380</v>
       </c>
       <c r="R99" t="n">
-        <v>6712141</v>
+        <v>6712240</v>
       </c>
       <c r="S99" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T99" t="inlineStr">
         <is>
@@ -11145,25 +11213,26 @@
       <c r="AE99" t="b">
         <v>0</v>
       </c>
+      <c r="AF99" t="inlineStr"/>
       <c r="AG99" t="b">
         <v>0</v>
       </c>
       <c r="AT99" t="inlineStr"/>
       <c r="AW99" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AX99" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>fanny westling, Bo karlstens, Philipp Weiss</t>
         </is>
       </c>
       <c r="AY99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>112371074</v>
+        <v>112388768</v>
       </c>
       <c r="B100" t="n">
         <v>96735</v>
@@ -11199,17 +11268,17 @@
       <c r="I100" t="inlineStr"/>
       <c r="P100" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Körbergsklack, Gstr</t>
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>578810</v>
+        <v>578734</v>
       </c>
       <c r="R100" t="n">
-        <v>6711915</v>
+        <v>6711966</v>
       </c>
       <c r="S100" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T100" t="inlineStr">
         <is>
@@ -11253,19 +11322,19 @@
       <c r="AT100" t="inlineStr"/>
       <c r="AW100" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AX100" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AY100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>112371069</v>
+        <v>112388765</v>
       </c>
       <c r="B101" t="n">
         <v>96735</v>
@@ -11301,17 +11370,17 @@
       <c r="I101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Körbergsklack, Gstr</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>578778</v>
+        <v>578382</v>
       </c>
       <c r="R101" t="n">
-        <v>6711932</v>
+        <v>6712365</v>
       </c>
       <c r="S101" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T101" t="inlineStr">
         <is>
@@ -11355,22 +11424,22 @@
       <c r="AT101" t="inlineStr"/>
       <c r="AW101" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AX101" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AY101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>112371088</v>
+        <v>112388761</v>
       </c>
       <c r="B102" t="n">
-        <v>103781</v>
+        <v>90806</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -11379,41 +11448,41 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>221144</v>
+        <v>4361</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="P102" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Körbergsklack, Gstr</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>578718</v>
+        <v>578383</v>
       </c>
       <c r="R102" t="n">
-        <v>6712055</v>
+        <v>6712255</v>
       </c>
       <c r="S102" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T102" t="inlineStr">
         <is>
@@ -11457,19 +11526,19 @@
       <c r="AT102" t="inlineStr"/>
       <c r="AW102" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AX102" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AY102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>112367406</v>
+        <v>112388764</v>
       </c>
       <c r="B103" t="n">
         <v>96735</v>
@@ -11503,20 +11572,19 @@
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
       <c r="P103" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack, Gstr</t>
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>578468</v>
+        <v>578382</v>
       </c>
       <c r="R103" t="n">
-        <v>6712047</v>
+        <v>6712336</v>
       </c>
       <c r="S103" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T103" t="inlineStr">
         <is>
@@ -11543,19 +11611,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z103" t="inlineStr">
-        <is>
-          <t>12:43</t>
-        </is>
-      </c>
       <c r="AA103" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB103" t="inlineStr">
-        <is>
-          <t>12:43</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -11570,22 +11628,22 @@
       <c r="AT103" t="inlineStr"/>
       <c r="AW103" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AX103" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AY103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>112367564</v>
+        <v>112388771</v>
       </c>
       <c r="B104" t="n">
-        <v>98980</v>
+        <v>96735</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -11594,42 +11652,41 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack, Gstr</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>578371</v>
+        <v>578844</v>
       </c>
       <c r="R104" t="n">
-        <v>6712052</v>
+        <v>6711759</v>
       </c>
       <c r="S104" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T104" t="inlineStr">
         <is>
@@ -11656,19 +11713,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z104" t="inlineStr">
-        <is>
-          <t>12:58</t>
-        </is>
-      </c>
       <c r="AA104" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB104" t="inlineStr">
-        <is>
-          <t>12:58</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -11683,22 +11730,22 @@
       <c r="AT104" t="inlineStr"/>
       <c r="AW104" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AX104" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AY104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>112370881</v>
+        <v>112388770</v>
       </c>
       <c r="B105" t="n">
-        <v>73832</v>
+        <v>96735</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -11711,40 +11758,37 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>6486</v>
+        <v>220787</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Skuggnål</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Chaenotheca sphaerocephala</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Nádv.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="N105" t="inlineStr"/>
       <c r="P105" t="inlineStr">
         <is>
-          <t>Körberget, Gstr</t>
+          <t>Körbergsklack, Gstr</t>
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>578822</v>
+        <v>578894</v>
       </c>
       <c r="R105" t="n">
-        <v>6711846</v>
+        <v>6711823</v>
       </c>
       <c r="S105" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T105" t="inlineStr">
         <is>
@@ -11768,17 +11812,12 @@
       </c>
       <c r="Y105" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-09-28</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
-        </is>
-      </c>
-      <c r="AC105" t="inlineStr">
-        <is>
-          <t>Trebuxoida alger</t>
+          <t>2023-09-28</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -11787,43 +11826,28 @@
       <c r="AE105" t="b">
         <v>0</v>
       </c>
-      <c r="AF105" t="inlineStr">
-        <is>
-          <t>mikroskoperad</t>
-        </is>
-      </c>
       <c r="AG105" t="b">
         <v>0</v>
-      </c>
-      <c r="AO105" t="inlineStr">
-        <is>
-          <t>Bark och växtdelar i rotskreva på gran</t>
-        </is>
-      </c>
-      <c r="AQ105" t="inlineStr">
-        <is>
-          <t>Nicklas Gustavsson</t>
-        </is>
       </c>
       <c r="AT105" t="inlineStr"/>
       <c r="AW105" t="inlineStr">
         <is>
-          <t>Nicklas Gustavsson</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AX105" t="inlineStr">
         <is>
-          <t>Nicklas Gustavsson</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AY105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>112368736</v>
+        <v>112388773</v>
       </c>
       <c r="B106" t="n">
-        <v>96735</v>
+        <v>90814</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -11832,55 +11856,41 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>220787</v>
+        <v>4364</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack, Gstr</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>578521</v>
+        <v>578468</v>
       </c>
       <c r="R106" t="n">
-        <v>6712223</v>
+        <v>6712289</v>
       </c>
       <c r="S106" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T106" t="inlineStr">
         <is>
@@ -11907,19 +11917,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z106" t="inlineStr">
-        <is>
-          <t>14:10</t>
-        </is>
-      </c>
       <c r="AA106" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB106" t="inlineStr">
-        <is>
-          <t>14:10</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -11934,22 +11934,22 @@
       <c r="AT106" t="inlineStr"/>
       <c r="AW106" t="inlineStr">
         <is>
-          <t>Maj-Lis Koivisto</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AX106" t="inlineStr">
         <is>
-          <t>Maj-Lis Koivisto</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AY106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>112371063</v>
+        <v>112388762</v>
       </c>
       <c r="B107" t="n">
-        <v>96735</v>
+        <v>90837</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -11958,41 +11958,41 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>220787</v>
+        <v>5966</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="P107" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Körbergsklack, Gstr</t>
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>578719</v>
+        <v>578379</v>
       </c>
       <c r="R107" t="n">
-        <v>6712041</v>
+        <v>6712320</v>
       </c>
       <c r="S107" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T107" t="inlineStr">
         <is>
@@ -12036,19 +12036,19 @@
       <c r="AT107" t="inlineStr"/>
       <c r="AW107" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AX107" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AY107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>112388770</v>
+        <v>112388769</v>
       </c>
       <c r="B108" t="n">
         <v>96735</v>
@@ -12088,10 +12088,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>578894</v>
+        <v>578822</v>
       </c>
       <c r="R108" t="n">
-        <v>6711823</v>
+        <v>6711947</v>
       </c>
       <c r="S108" t="n">
         <v>10</v>
@@ -12150,10 +12150,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>112388771</v>
+        <v>112388755</v>
       </c>
       <c r="B109" t="n">
-        <v>96735</v>
+        <v>94301</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -12162,25 +12162,25 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -12190,10 +12190,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>578844</v>
+        <v>578533</v>
       </c>
       <c r="R109" t="n">
-        <v>6711759</v>
+        <v>6712173</v>
       </c>
       <c r="S109" t="n">
         <v>10</v>
@@ -12252,10 +12252,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>112388755</v>
+        <v>112388772</v>
       </c>
       <c r="B110" t="n">
-        <v>94301</v>
+        <v>90814</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -12264,25 +12264,25 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>53</v>
+        <v>4364</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -12292,10 +12292,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>578533</v>
+        <v>578357</v>
       </c>
       <c r="R110" t="n">
-        <v>6712173</v>
+        <v>6712262</v>
       </c>
       <c r="S110" t="n">
         <v>10</v>
@@ -12354,10 +12354,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>112388756</v>
+        <v>112388767</v>
       </c>
       <c r="B111" t="n">
-        <v>94301</v>
+        <v>96735</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -12366,25 +12366,25 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>53</v>
+        <v>220787</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -12394,10 +12394,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>578606</v>
+        <v>578649</v>
       </c>
       <c r="R111" t="n">
-        <v>6712141</v>
+        <v>6712135</v>
       </c>
       <c r="S111" t="n">
         <v>10</v>
@@ -12456,7 +12456,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>112388769</v>
+        <v>112388766</v>
       </c>
       <c r="B112" t="n">
         <v>96735</v>
@@ -12496,10 +12496,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>578822</v>
+        <v>578376</v>
       </c>
       <c r="R112" t="n">
-        <v>6711947</v>
+        <v>6712359</v>
       </c>
       <c r="S112" t="n">
         <v>10</v>
@@ -12558,10 +12558,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>112388767</v>
+        <v>112388756</v>
       </c>
       <c r="B113" t="n">
-        <v>96735</v>
+        <v>94301</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -12570,25 +12570,25 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -12598,10 +12598,10 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>578649</v>
+        <v>578606</v>
       </c>
       <c r="R113" t="n">
-        <v>6712135</v>
+        <v>6712141</v>
       </c>
       <c r="S113" t="n">
         <v>10</v>
@@ -12660,10 +12660,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>112388768</v>
+        <v>112388760</v>
       </c>
       <c r="B114" t="n">
-        <v>96735</v>
+        <v>90858</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -12672,25 +12672,25 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>220787</v>
+        <v>5449</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -12700,10 +12700,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>578734</v>
+        <v>578371</v>
       </c>
       <c r="R114" t="n">
-        <v>6711966</v>
+        <v>6712300</v>
       </c>
       <c r="S114" t="n">
         <v>10</v>

--- a/artfynd/A 38730-2023.xlsx
+++ b/artfynd/A 38730-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112368041</v>
+        <v>112366856</v>
       </c>
       <c r="B2" t="n">
         <v>96735</v>
@@ -713,34 +713,21 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>578593</v>
+        <v>578467</v>
       </c>
       <c r="R2" t="n">
-        <v>6712103</v>
+        <v>6712023</v>
       </c>
       <c r="S2" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -769,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -779,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -794,22 +781,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Maj-Lis Koivisto</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Maj-Lis Koivisto</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112371071</v>
+        <v>112368548</v>
       </c>
       <c r="B3" t="n">
-        <v>96735</v>
+        <v>79580</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -818,41 +805,42 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>1049</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>578786</v>
+        <v>578578</v>
       </c>
       <c r="R3" t="n">
-        <v>6711934</v>
+        <v>6712190</v>
       </c>
       <c r="S3" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -879,9 +867,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>13:50</t>
+        </is>
+      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -896,19 +894,19 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Stephen Hinton</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Stephen Hinton</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112371060</v>
+        <v>112371071</v>
       </c>
       <c r="B4" t="n">
         <v>96735</v>
@@ -948,10 +946,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>578726</v>
+        <v>578786</v>
       </c>
       <c r="R4" t="n">
-        <v>6712073</v>
+        <v>6711934</v>
       </c>
       <c r="S4" t="n">
         <v>15</v>
@@ -1010,7 +1008,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112371042</v>
+        <v>112371060</v>
       </c>
       <c r="B5" t="n">
         <v>96735</v>
@@ -1050,10 +1048,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>578327</v>
+        <v>578726</v>
       </c>
       <c r="R5" t="n">
-        <v>6712326</v>
+        <v>6712073</v>
       </c>
       <c r="S5" t="n">
         <v>15</v>
@@ -1112,7 +1110,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112371065</v>
+        <v>112371042</v>
       </c>
       <c r="B6" t="n">
         <v>96735</v>
@@ -1152,10 +1150,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>578756</v>
+        <v>578327</v>
       </c>
       <c r="R6" t="n">
-        <v>6711975</v>
+        <v>6712326</v>
       </c>
       <c r="S6" t="n">
         <v>15</v>
@@ -1214,7 +1212,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112371073</v>
+        <v>112371065</v>
       </c>
       <c r="B7" t="n">
         <v>96735</v>
@@ -1254,10 +1252,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>578799</v>
+        <v>578756</v>
       </c>
       <c r="R7" t="n">
-        <v>6711927</v>
+        <v>6711975</v>
       </c>
       <c r="S7" t="n">
         <v>15</v>
@@ -1316,10 +1314,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112371011</v>
+        <v>112371073</v>
       </c>
       <c r="B8" t="n">
-        <v>89072</v>
+        <v>96735</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1328,25 +1326,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>256703</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1356,10 +1354,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>578513</v>
+        <v>578799</v>
       </c>
       <c r="R8" t="n">
-        <v>6712263</v>
+        <v>6711927</v>
       </c>
       <c r="S8" t="n">
         <v>15</v>
@@ -1418,10 +1416,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112368548</v>
+        <v>112371011</v>
       </c>
       <c r="B9" t="n">
-        <v>79580</v>
+        <v>89072</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1430,42 +1428,41 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1049</v>
+        <v>256703</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>578578</v>
+        <v>578513</v>
       </c>
       <c r="R9" t="n">
-        <v>6712190</v>
+        <v>6712263</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1492,19 +1489,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>13:50</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>13:50</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1519,19 +1506,19 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Stephen Hinton</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Stephen Hinton</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112366856</v>
+        <v>112368041</v>
       </c>
       <c r="B10" t="n">
         <v>96735</v>
@@ -1564,21 +1551,34 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>578467</v>
+        <v>578593</v>
       </c>
       <c r="R10" t="n">
-        <v>6712023</v>
+        <v>6712103</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1632,12 +1632,12 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Maj-Lis Koivisto</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Maj-Lis Koivisto</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112368348</v>
+        <v>112371063</v>
       </c>
       <c r="B12" t="n">
         <v>96735</v>
@@ -1799,34 +1799,20 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>578592</v>
+        <v>578719</v>
       </c>
       <c r="R12" t="n">
-        <v>6712168</v>
+        <v>6712041</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1853,19 +1839,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>13:39</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>13:39</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1880,22 +1856,22 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Maj-Lis Koivisto</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Maj-Lis Koivisto</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112370881</v>
+        <v>112371051</v>
       </c>
       <c r="B13" t="n">
-        <v>73832</v>
+        <v>96735</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1908,40 +1884,37 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6486</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skuggnål</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Chaenotheca sphaerocephala</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Nádv.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Körberget, Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>578822</v>
+        <v>578632</v>
       </c>
       <c r="R13" t="n">
-        <v>6711846</v>
+        <v>6712136</v>
       </c>
       <c r="S13" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1965,17 +1938,12 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-09-28</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Trebuxoida alger</t>
+          <t>2023-09-28</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1984,43 +1952,28 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>mikroskoperad</t>
-        </is>
-      </c>
       <c r="AG13" t="b">
         <v>0</v>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>Bark och växtdelar i rotskreva på gran</t>
-        </is>
-      </c>
-      <c r="AQ13" t="inlineStr">
-        <is>
-          <t>Nicklas Gustavsson</t>
-        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Nicklas Gustavsson</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Nicklas Gustavsson</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112371051</v>
+        <v>112371088</v>
       </c>
       <c r="B14" t="n">
-        <v>96735</v>
+        <v>103781</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2029,25 +1982,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2057,10 +2010,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>578632</v>
+        <v>578718</v>
       </c>
       <c r="R14" t="n">
-        <v>6712136</v>
+        <v>6712055</v>
       </c>
       <c r="S14" t="n">
         <v>15</v>
@@ -2119,10 +2072,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112371088</v>
+        <v>112371067</v>
       </c>
       <c r="B15" t="n">
-        <v>103781</v>
+        <v>96735</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2131,25 +2084,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2159,10 +2112,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>578718</v>
+        <v>578762</v>
       </c>
       <c r="R15" t="n">
-        <v>6712055</v>
+        <v>6711974</v>
       </c>
       <c r="S15" t="n">
         <v>15</v>
@@ -2221,10 +2174,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112371067</v>
+        <v>112371093</v>
       </c>
       <c r="B16" t="n">
-        <v>96735</v>
+        <v>90835</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2233,25 +2186,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220787</v>
+        <v>5964</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2261,10 +2214,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>578762</v>
+        <v>578358</v>
       </c>
       <c r="R16" t="n">
-        <v>6711974</v>
+        <v>6712387</v>
       </c>
       <c r="S16" t="n">
         <v>15</v>
@@ -2323,10 +2276,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112371093</v>
+        <v>112368304</v>
       </c>
       <c r="B17" t="n">
-        <v>90835</v>
+        <v>96735</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2335,41 +2288,42 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5964</v>
+        <v>220787</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>578358</v>
+        <v>578586</v>
       </c>
       <c r="R17" t="n">
-        <v>6712387</v>
+        <v>6712067</v>
       </c>
       <c r="S17" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2393,12 +2347,12 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2413,22 +2367,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112368304</v>
+        <v>112367564</v>
       </c>
       <c r="B18" t="n">
-        <v>96735</v>
+        <v>98980</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2437,25 +2391,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2466,10 +2420,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>578586</v>
+        <v>578371</v>
       </c>
       <c r="R18" t="n">
-        <v>6712067</v>
+        <v>6712052</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -2496,12 +2450,22 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2528,10 +2492,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112367564</v>
+        <v>112370881</v>
       </c>
       <c r="B19" t="n">
-        <v>98980</v>
+        <v>73832</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2540,42 +2504,44 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>222498</v>
+        <v>6486</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Skuggnål</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Chaenotheca sphaerocephala</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Nádv.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körberget, Gstr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>578371</v>
+        <v>578822</v>
       </c>
       <c r="R19" t="n">
-        <v>6712052</v>
+        <v>6711846</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2599,22 +2565,17 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>12:58</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>12:58</t>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Trebuxoida alger</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2623,25 +2584,40 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>mikroskoperad</t>
+        </is>
+      </c>
       <c r="AG19" t="b">
         <v>0</v>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Bark och växtdelar i rotskreva på gran</t>
+        </is>
+      </c>
+      <c r="AQ19" t="inlineStr">
+        <is>
+          <t>Nicklas Gustavsson</t>
+        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112371063</v>
+        <v>112368348</v>
       </c>
       <c r="B20" t="n">
         <v>96735</v>
@@ -2674,20 +2650,34 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>578719</v>
+        <v>578592</v>
       </c>
       <c r="R20" t="n">
-        <v>6712041</v>
+        <v>6712168</v>
       </c>
       <c r="S20" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2714,9 +2704,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>13:39</t>
+        </is>
+      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2731,12 +2731,12 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Maj-Lis Koivisto</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Maj-Lis Koivisto</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
@@ -4972,10 +4972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112371000</v>
+        <v>112366785</v>
       </c>
       <c r="B42" t="n">
-        <v>78242</v>
+        <v>98980</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -4984,41 +4984,51 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6453</v>
+        <v>222498</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>578757</v>
+        <v>578467</v>
       </c>
       <c r="R42" t="n">
-        <v>6711985</v>
+        <v>6711997</v>
       </c>
       <c r="S42" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5045,9 +5055,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>12:10</t>
+        </is>
+      </c>
       <c r="AA42" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5062,22 +5082,22 @@
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>FREDRIK Månsson</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>FREDRIK Månsson</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112371037</v>
+        <v>112371189</v>
       </c>
       <c r="B43" t="n">
-        <v>96735</v>
+        <v>94301</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5086,41 +5106,45 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Körberget, Gstr</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>578447</v>
+        <v>578633</v>
       </c>
       <c r="R43" t="n">
-        <v>6712038</v>
+        <v>6712149</v>
       </c>
       <c r="S43" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5144,12 +5168,17 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>Mycket rikligt</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5158,28 +5187,34 @@
       <c r="AE43" t="b">
         <v>0</v>
       </c>
+      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
+      </c>
+      <c r="AO43" t="inlineStr">
+        <is>
+          <t>Ved, granlåga</t>
+        </is>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>112371091</v>
+        <v>112371000</v>
       </c>
       <c r="B44" t="n">
-        <v>90799</v>
+        <v>78242</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5192,21 +5227,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1968</v>
+        <v>6453</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5216,10 +5251,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>578379</v>
+        <v>578757</v>
       </c>
       <c r="R44" t="n">
-        <v>6712225</v>
+        <v>6711985</v>
       </c>
       <c r="S44" t="n">
         <v>15</v>
@@ -5260,7 +5295,6 @@
       <c r="AE44" t="b">
         <v>0</v>
       </c>
-      <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="b">
         <v>0</v>
       </c>
@@ -5279,10 +5313,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>112371118</v>
+        <v>112371037</v>
       </c>
       <c r="B45" t="n">
-        <v>98980</v>
+        <v>96735</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5291,25 +5325,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5319,10 +5353,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>578398</v>
+        <v>578447</v>
       </c>
       <c r="R45" t="n">
-        <v>6712341</v>
+        <v>6712038</v>
       </c>
       <c r="S45" t="n">
         <v>15</v>
@@ -5381,10 +5415,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112371120</v>
+        <v>112371091</v>
       </c>
       <c r="B46" t="n">
-        <v>98980</v>
+        <v>90799</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5393,25 +5427,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>222498</v>
+        <v>1968</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5421,10 +5455,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>578621</v>
+        <v>578379</v>
       </c>
       <c r="R46" t="n">
-        <v>6712091</v>
+        <v>6712225</v>
       </c>
       <c r="S46" t="n">
         <v>15</v>
@@ -5465,6 +5499,7 @@
       <c r="AE46" t="b">
         <v>0</v>
       </c>
+      <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="b">
         <v>0</v>
       </c>
@@ -5483,10 +5518,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112371010</v>
+        <v>112371118</v>
       </c>
       <c r="B47" t="n">
-        <v>56575</v>
+        <v>98980</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5495,46 +5530,38 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>103021</v>
+        <v>222498</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
           <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>578638</v>
+        <v>578398</v>
       </c>
       <c r="R47" t="n">
-        <v>6712116</v>
+        <v>6712341</v>
       </c>
       <c r="S47" t="n">
         <v>15</v>
@@ -5593,10 +5620,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112371189</v>
+        <v>112371120</v>
       </c>
       <c r="B48" t="n">
-        <v>94301</v>
+        <v>98980</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5605,45 +5632,41 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>53</v>
+        <v>222498</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Körberget, Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>578633</v>
+        <v>578621</v>
       </c>
       <c r="R48" t="n">
-        <v>6712149</v>
+        <v>6712091</v>
       </c>
       <c r="S48" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -5667,17 +5690,12 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-09-28</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
-        </is>
-      </c>
-      <c r="AC48" t="inlineStr">
-        <is>
-          <t>Mycket rikligt</t>
+          <t>2023-09-28</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5686,34 +5704,28 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
-      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
-      </c>
-      <c r="AO48" t="inlineStr">
-        <is>
-          <t>Ved, granlåga</t>
-        </is>
       </c>
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Nicklas Gustavsson</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Nicklas Gustavsson</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112367497</v>
+        <v>112371010</v>
       </c>
       <c r="B49" t="n">
-        <v>98980</v>
+        <v>56575</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5722,42 +5734,49 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>222498</v>
+        <v>103021</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>578413</v>
+        <v>578638</v>
       </c>
       <c r="R49" t="n">
-        <v>6712038</v>
+        <v>6712116</v>
       </c>
       <c r="S49" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -5784,19 +5803,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>12:53</t>
-        </is>
-      </c>
       <c r="AA49" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB49" t="inlineStr">
-        <is>
-          <t>12:53</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5811,19 +5820,19 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>112366785</v>
+        <v>112367497</v>
       </c>
       <c r="B50" t="n">
         <v>98980</v>
@@ -5856,16 +5865,7 @@
           <t>Schreb.</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
@@ -5873,13 +5873,13 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>578467</v>
+        <v>578413</v>
       </c>
       <c r="R50" t="n">
-        <v>6711997</v>
+        <v>6712038</v>
       </c>
       <c r="S50" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>12:53</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -5918,7 +5918,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>12:53</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -5933,12 +5933,12 @@
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>FREDRIK Månsson</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>FREDRIK Månsson</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
@@ -6735,10 +6735,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112371117</v>
+        <v>112367463</v>
       </c>
       <c r="B58" t="n">
-        <v>98980</v>
+        <v>96735</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6747,41 +6747,42 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>578391</v>
+        <v>578432</v>
       </c>
       <c r="R58" t="n">
-        <v>6712337</v>
+        <v>6712038</v>
       </c>
       <c r="S58" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -6808,9 +6809,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
       <c r="AA58" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6825,22 +6836,22 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112371021</v>
+        <v>112368608</v>
       </c>
       <c r="B59" t="n">
-        <v>90826</v>
+        <v>96735</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -6849,41 +6860,55 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>4366</v>
+        <v>220787</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Körbergsklack_östra, Gstr</t>
+          <t>Flughem (Flughem), Gstr</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>578391</v>
+        <v>578601</v>
       </c>
       <c r="R59" t="n">
-        <v>6712213</v>
+        <v>6712180</v>
       </c>
       <c r="S59" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -6910,9 +6935,19 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>13:54</t>
+        </is>
+      </c>
       <c r="AA59" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -6927,22 +6962,22 @@
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Maj-Lis Koivisto</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
+          <t>Maj-Lis Koivisto</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112368608</v>
+        <v>112371117</v>
       </c>
       <c r="B60" t="n">
-        <v>96735</v>
+        <v>98980</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -6951,55 +6986,41 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>578601</v>
+        <v>578391</v>
       </c>
       <c r="R60" t="n">
-        <v>6712180</v>
+        <v>6712337</v>
       </c>
       <c r="S60" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -7026,19 +7047,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z60" t="inlineStr">
-        <is>
-          <t>13:54</t>
-        </is>
-      </c>
       <c r="AA60" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB60" t="inlineStr">
-        <is>
-          <t>13:54</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7053,22 +7064,22 @@
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Maj-Lis Koivisto</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Maj-Lis Koivisto</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>112367463</v>
+        <v>112371021</v>
       </c>
       <c r="B61" t="n">
-        <v>96735</v>
+        <v>90826</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7077,42 +7088,41 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>220787</v>
+        <v>4366</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Flughem (Flughem), Gstr</t>
+          <t>Körbergsklack_östra, Gstr</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>578432</v>
+        <v>578391</v>
       </c>
       <c r="R61" t="n">
-        <v>6712038</v>
+        <v>6712213</v>
       </c>
       <c r="S61" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -7139,19 +7149,9 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Z61" t="inlineStr">
-        <is>
-          <t>12:48</t>
-        </is>
-      </c>
       <c r="AA61" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AB61" t="inlineStr">
-        <is>
-          <t>12:48</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7166,12 +7166,12 @@
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss, fanny westling, Bo karlstens, Annelie Hilmerby, FREDRIK Månsson, Maj-Lis Koivisto, Stephen Hinton</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
